--- a/public/preprocessing/@Kazhim.xlsx
+++ b/public/preprocessing/@Kazhim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17344</v>
+        <v>28113</v>
       </c>
       <c r="C2" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>wahai ali terimalah cintaku yg sederhana ini yg apa adanya ini kau adalah suluhku dalam kegalauan dan kesenderia</t>
+          <t>ini soto asli madura</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['wahai', 'ali', 'terimalah', 'cintaku', 'yg', 'sederhana', 'ini', 'yg', 'apa', 'adanya', 'ini', 'kau', 'adalah', 'suluhku', 'dalam', 'kegalauan', 'dan', 'kesenderia']</t>
+          <t>['ini', 'soto', 'asli', 'madura']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['ini', 'soto', 'asli', 'madura']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['ali', 'terimalah', 'cintaku', 'sederhana', 'kau', 'suluhku', 'kegalauan', 'kesenderia']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['ali', 'terima', 'cinta', 'sederhana', 'kau', 'suluh', 'galau', 'kesenderia']</t>
+          <t>['soto', 'asli', 'madura']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['soto', 'asli', 'madura']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17345</v>
+        <v>28114</v>
       </c>
       <c r="C3" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>rt sekiranya semua perbuatan ini suatu ketika mnjdi kesempurnaan bg pelakunya niscaya berakhlak mulia menjadi lebh indah dn lebh</t>
+          <t>rt kontribusi sederhana dari saya soal intelektual publik corak kekuasaan dan wajah universitas kita buat kalangan akade</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rt', 'sekiranya', 'semua', 'perbuatan', 'ini', 'suatu', 'ketika', 'mnjdi', 'kesempurnaan', 'bg', 'pelakunya', 'niscaya', 'berakhlak', 'mulia', 'menjadi', 'lebh', 'indah', 'dn', 'lebh']</t>
+          <t>['rt', 'kontribusi', 'sederhana', 'dari', 'saya', 'soal', 'intelektual', 'publik', 'corak', 'kekuasaan', 'dan', 'wajah', 'universitas', 'kita', 'buat', 'kalangan', 'akade']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'kontribusi', 'sederhana', 'dari', 'saya', 'soal', 'intelektual', 'publik', 'corak', 'kekuasaan', 'dan', 'wajah', 'universitas', 'kita', 'buat', 'kalangan', 'akade']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['perbuatan', 'mnjdi', 'kesempurnaan', 'bg', 'pelakunya', 'niscaya', 'berakhlak', 'mulia', 'lebh', 'indah', 'dn', 'lebh']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['buat', 'mnjdi', 'sempurna', 'bg', 'laku', 'niscaya', 'akhlak', 'mulia', 'lebh', 'indah', 'dn', 'lebh']</t>
+          <t>['kontribusi', 'sederhana', 'intelektual', 'publik', 'corak', 'kekuasaan', 'wajah', 'universitas', 'kalangan', 'akade']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['kontribusi', 'sederhana', 'intelektual', 'publik', 'corak', 'kuasa', 'wajah', 'universitas', 'kalang', 'akade']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17346</v>
+        <v>28115</v>
       </c>
       <c r="C4" t="n">
-        <v>215</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ini surat saya untuk presiden terkait lesunya industri buku nasional</t>
-        </is>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['ini', 'surat', 'saya', 'untuk', 'presiden', 'terkait', 'lesunya', 'industri', 'buku', 'nasional']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['surat', 'presiden', 'terkait', 'lesunya', 'industri', 'buku', 'nasional']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['surat', 'presiden', 'kait', 'lesu', 'industri', 'buku', 'nasional']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -583,34 +599,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17347</v>
+        <v>28116</v>
       </c>
       <c r="C5" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt kimberly please join the twitterstorm for hassan almaliki this saturday february from gmt he is  priso</t>
+          <t>rt tidaklah mudah mengharamkan sesuatu yang mubah kecuali terdapat dasardasar ilmiah yang ketat dan tegas bacaan akhir pekan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'kimberly', 'please', 'join', 'the', 'twitterstorm', 'for', 'hassan', 'almaliki', 'this', 'saturday', 'february', 'from', 'gmt', 'he', 'is', 'priso']</t>
+          <t>['rt', 'tidaklah', 'mudah', 'mengharamkan', 'sesuatu', 'yang', 'mubah', 'kecuali', 'terdapat', 'dasardasar', 'ilmiah', 'yang', 'ketat', 'dan', 'tegas', 'bacaan', 'akhir', 'pekan']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'tidaklah', 'mudah', 'mengharamkan', 'sesuatu', 'yang', 'mubah', 'kecuali', 'terdapat', 'dasardasar', 'ilmiah', 'yang', 'ketat', 'dan', 'tegas', 'bacaan', 'akhir', 'pekan']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['kimberly', 'please', 'join', 'the', 'twitterstorm', 'for', 'hassan', 'almaliki', 'this', 'saturday', 'february', 'from', 'gmt', 'he', 'is', 'priso']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['kimberly', 'please', 'join', 'the', 'twitterstorm', 'for', 'hassan', 'almalik', 'this', 'saturday', 'february', 'from', 'gmt', 'he', 'is', 'priso']</t>
+          <t>['mudah', 'mengharamkan', 'mubah', 'kecuali', 'dasardasar', 'ilmiah', 'ketat', 'bacaan', 'pekan']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['mudah', 'haram', 'mubah', 'kecuali', 'dasardasar', 'ilmiah', 'ketat', 'baca', 'pekan']</t>
         </is>
       </c>
     </row>
@@ -619,34 +640,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17348</v>
+        <v>28117</v>
       </c>
       <c r="C6" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>desa sana daya pamekasan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['as']</t>
+          <t>['desa', 'sana', 'daya', 'pamekasan']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['desa', 'sana', 'daya', 'pamekasan']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['as']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['as']</t>
+          <t>['desa', 'daya', 'pamekasan']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['desa', 'daya', 'pamekasan']</t>
         </is>
       </c>
     </row>
@@ -655,34 +681,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17349</v>
+        <v>28118</v>
       </c>
       <c r="C7" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ya di icc</t>
+          <t>rt jika kau bergembira maka kau akan memaksa alam di sekitarmu untuk ikut bergembira denganmu</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['ya', 'di', 'icc']</t>
+          <t>['rt', 'jika', 'kau', 'bergembira', 'maka', 'kau', 'akan', 'memaksa', 'alam', 'di', 'sekitarmu', 'untuk', 'ikut', 'bergembira', 'denganmu']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'jika', 'kamu', 'bergembira', 'maka', 'kamu', 'akan', 'memaksa', 'alam', 'di', 'sekitarmu', 'untuk', 'ikut', 'bergembira', 'denganmu']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['icc']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['icc']</t>
+          <t>['bergembira', 'memaksa', 'alam', 'sekitarmu', 'bergembira', 'denganmu']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['gembira', 'paksa', 'alam', 'sekitar', 'gembira', 'dengan']</t>
         </is>
       </c>
     </row>
@@ -691,34 +722,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17350</v>
+        <v>28119</v>
       </c>
       <c r="C8" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>proses evakuasi ribuan buku yg terkena banjir</t>
+          <t>haye di mana</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['proses', 'evakuasi', 'ribuan', 'buku', 'yg', 'terkena', 'banjir']</t>
+          <t>['haye', 'di', 'mana']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['haye', 'di', 'mana']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['proses', 'evakuasi', 'ribuan', 'buku', 'terkena', 'banjir']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['proses', 'evakuasi', 'ribu', 'buku', 'kena', 'banjir']</t>
+          <t>['haye']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['haye']</t>
         </is>
       </c>
     </row>
@@ -727,34 +763,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17351</v>
+        <v>28120</v>
       </c>
       <c r="C9" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>barusan ada majlis duka untuk almarhum kang jalal di makam imam ali alridha di masyhad khurasan</t>
+          <t>imam ali perilaku paling seimbang adalah memperlakukan orang dgn cara yg kau ingin orang memperlakukanmu</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['barusan', 'ada', 'majlis', 'duka', 'untuk', 'almarhum', 'kang', 'jalal', 'di', 'makam', 'imam', 'ali', 'alridha', 'di', 'masyhad', 'khurasan']</t>
+          <t>['imam', 'ali', 'perilaku', 'paling', 'seimbang', 'adalah', 'memperlakukan', 'orang', 'dgn', 'cara', 'yg', 'kau', 'ingin', 'orang', 'memperlakukanmu']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['imam', 'ali', 'perilaku', 'paling', 'seimbang', 'adalah', 'memperlakukan', 'orang', 'dengan', 'cara', 'yang', 'kamu', 'ingin', 'orang', 'memperlakukanmu']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['barusan', 'majlis', 'duka', 'almarhum', 'kang', 'jalal', 'makam', 'imam', 'ali', 'alridha', 'masyhad', 'khurasan']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['barusan', 'majlis', 'duka', 'almarhum', 'kang', 'jalal', 'makam', 'imam', 'ali', 'alridha', 'masyhad', 'khurasan']</t>
+          <t>['imam', 'ali', 'perilaku', 'seimbang', 'memperlakukan', 'orang', 'orang', 'memperlakukanmu']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['imam', 'ali', 'perilaku', 'imbang', 'laku', 'orang', 'orang', 'laku']</t>
         </is>
       </c>
     </row>
@@ -763,34 +804,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17352</v>
+        <v>28121</v>
       </c>
       <c r="C10" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>terima kasih atas semua simpati teman liat buku hancur hati ini jelas ikut hancur</t>
+          <t>kesaksian pemilik rumah ayatullah sayyid ali sistani tentang rumah yg disewanya</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'atas', 'semua', 'simpati', 'teman', 'liat', 'buku', 'hancur', 'hati', 'ini', 'jelas', 'ikut', 'hancur']</t>
+          <t>['kesaksian', 'pemilik', 'rumah', 'ayatullah', 'sayyid', 'ali', 'sistani', 'tentang', 'rumah', 'yg', 'disewanya']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['kesaksian', 'pemilik', 'rumah', 'ayatullah', 'sayid', 'ali', 'sistani', 'tentang', 'rumah', 'yang', 'disewanya']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'simpati', 'teman', 'liat', 'buku', 'hancur', 'hati', 'hancur']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'simpati', 'teman', 'liat', 'buku', 'hancur', 'hati', 'hancur']</t>
+          <t>['kesaksian', 'pemilik', 'rumah', 'ayatullah', 'sayid', 'ali', 'sistani', 'rumah', 'disewanya']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['saksi', 'milik', 'rumah', 'ayatullah', 'sayid', 'ali', 'sistani', 'rumah', 'sewa']</t>
         </is>
       </c>
     </row>
@@ -799,34 +845,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17353</v>
+        <v>28122</v>
       </c>
       <c r="C11" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>as ya bener mas sedih sekali</t>
+          <t>rasulullah sungguh aku sangat heran dengan seorang lelaki yg memukul istrinya padahal dia lebih perlu dipukul dar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['as', 'ya', 'bener', 'mas', 'sedih', 'sekali']</t>
+          <t>['rasulullah', 'sungguh', 'aku', 'sangat', 'heran', 'dengan', 'seorang', 'lelaki', 'yg', 'memukul', 'istrinya', 'padahal', 'dia', 'lebih', 'perlu', 'dipukul', 'dar']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rasulullah', 'sungguh', 'aku', 'sangat', 'heran', 'dengan', 'seorang', 'lelaki', 'yang', 'memukul', 'istrinya', 'padahal', 'dia', 'lebih', 'perlu', 'dipukul', 'dar']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['as', 'bener', 'mas', 'sedih']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['as', 'bener', 'mas', 'sedih']</t>
+          <t>['rasulullah', 'sungguh', 'heran', 'lelaki', 'memukul', 'istrinya', 'dipukul', 'dar']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['rasulullah', 'sungguh', 'heran', 'lelaki', 'pukul', 'istri', 'pukul', 'dar']</t>
         </is>
       </c>
     </row>
@@ -835,34 +886,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17354</v>
+        <v>28123</v>
       </c>
       <c r="C12" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ribuan buku terkena banjir di icc jakarta</t>
+          <t>rt berbicara kepada wartawan dlm penerbangan ke roma paus fransiskus menelusuri kembali tahapan kunjungan bersejarahnya ke irak</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['ribuan', 'buku', 'terkena', 'banjir', 'di', 'icc', 'jakarta']</t>
+          <t>['rt', 'berbicara', 'kepada', 'wartawan', 'dlm', 'penerbangan', 'ke', 'roma', 'paus', 'fransiskus', 'menelusuri', 'kembali', 'tahapan', 'kunjungan', 'bersejarahnya', 'ke', 'irak']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'berbicara', 'kepada', 'wartawan', 'dalam', 'penerbangan', 'ke', 'roma', 'paus', 'fransiskus', 'menelusuri', 'kembali', 'tahapan', 'kunjungan', 'bersejarahnya', 'ke', 'irak']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['ribuan', 'buku', 'terkena', 'banjir', 'icc', 'jakarta']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['ribu', 'buku', 'kena', 'banjir', 'icc', 'jakarta']</t>
+          <t>['berbicara', 'wartawan', 'penerbangan', 'roma', 'paus', 'fransiskus', 'menelusuri', 'tahapan', 'kunjungan', 'bersejarahnya', 'irak']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['bicara', 'wartawan', 'terbang', 'roma', 'paus', 'fransiskus', 'telusur', 'tahap', 'kunjung', 'sejarah', 'irak']</t>
         </is>
       </c>
     </row>
@@ -871,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17355</v>
+        <v>28124</v>
       </c>
       <c r="C13" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>pejabat yg buruk adalah pejabat yg tidak bisa menerima dan mengakui kekurangan banjir hari ini yg disalahkan guber</t>
+          <t>rumah beliau berada di lorong kecil di najaf rumah inipun merupakan rumah sewaan insyallah akan ada tul</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['pejabat', 'yg', 'buruk', 'adalah', 'pejabat', 'yg', 'tidak', 'bisa', 'menerima', 'dan', 'mengakui', 'kekurangan', 'banjir', 'hari', 'ini', 'yg', 'disalahkan', 'guber']</t>
+          <t>['rumah', 'beliau', 'berada', 'di', 'lorong', 'kecil', 'di', 'najaf', 'rumah', 'inipun', 'merupakan', 'rumah', 'sewaan', 'insyallah', 'akan', 'ada', 'tul']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['rumah', 'beliau', 'berada', 'di', 'lorong', 'kecil', 'di', 'najaf', 'rumah', 'inipun', 'merupakan', 'rumah', 'sewaan', 'insyaallah', 'akan', 'ada', 'betul']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['pejabat', 'buruk', 'pejabat', 'menerima', 'mengakui', 'kekurangan', 'banjir', 'disalahkan', 'guber']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['jabat', 'buruk', 'jabat', 'terima', 'aku', 'kurang', 'banjir', 'salah', 'guber']</t>
+          <t>['rumah', 'beliau', 'lorong', 'najaf', 'rumah', 'inipun', 'rumah', 'sewaan', 'insyaallah']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['rumah', 'beliau', 'lorong', 'najaf', 'rumah', 'ini', 'rumah', 'sewa', 'insyaallah']</t>
         </is>
       </c>
     </row>
@@ -907,34 +968,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17356</v>
+        <v>28125</v>
       </c>
       <c r="C14" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>bencana untuk ilmu agama</t>
+          <t>dia sangat bersahaja dan penuh hikmah pertemuan itu melegakan jiwa saya seperti sebuah cahaya paus fransiskus</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['bencana', 'untuk', 'ilmu', 'agama']</t>
+          <t>['dia', 'sangat', 'bersahaja', 'dan', 'penuh', 'hikmah', 'pertemuan', 'itu', 'melegakan', 'jiwa', 'saya', 'seperti', 'sebuah', 'cahaya', 'paus', 'fransiskus']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['dia', 'sangat', 'bersahaja', 'dan', 'penuh', 'hikmah', 'pertemuan', 'itu', 'melegakan', 'jiwa', 'saya', 'seperti', 'sebuah', 'cahaya', 'paus', 'fransiskus']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['bencana', 'ilmu', 'agama']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['bencana', 'ilmu', 'agama']</t>
+          <t>['bersahaja', 'penuh', 'hikmah', 'pertemuan', 'melegakan', 'jiwa', 'cahaya', 'paus', 'fransiskus']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['sahaja', 'penuh', 'hikmah', 'temu', 'lega', 'jiwa', 'cahaya', 'paus', 'fransiskus']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1009,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17357</v>
+        <v>28126</v>
       </c>
       <c r="C15" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>rasulullah kerakusan menghilangkan kebijaksanaan dari kalbu para ulama</t>
+          <t>dia sangat santun sangat menghormati tamunyaampsaya merasa terhormat dia tak pernah beranjak dr duduknya saat mene</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rasulullah', 'kerakusan', 'menghilangkan', 'kebijaksanaan', 'dari', 'kalbu', 'para', 'ulama']</t>
+          <t>['dia', 'sangat', 'santun', 'sangat', 'menghormati', 'tamunyaampsaya', 'merasa', 'terhormat', 'dia', 'tak', 'pernah', 'beranjak', 'dr', 'duduknya', 'saat', 'mene']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['dia', 'sangat', 'santun', 'sangat', 'menghormati', 'tamunyaampsaya', 'merasa', 'terhormat', 'dia', 'tak', 'pernah', 'beranjak', 'dari', 'duduknya', 'saat', 'mene']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['rasulullah', 'kerakusan', 'menghilangkan', 'kebijaksanaan', 'kalbu', 'ulama']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['rasulullah', 'rakus', 'hilang', 'bijaksana', 'kalbu', 'ulama']</t>
+          <t>['santun', 'menghormati', 'tamunyaampsaya', 'terhormat', 'beranjak', 'duduknya', 'mene']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['santun', 'hormat', 'tamunyaampsaya', 'hormat', 'anjak', 'duduk', 'mene']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1050,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17358</v>
+        <v>28127</v>
       </c>
       <c r="C16" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ucapan takziah ustad atas wafatnya almarhum ayahanda jalaluddin rahmat dan almarhumah ibunda tercint</t>
+          <t>dia memang sosok yang penuh kebijaksanaan kehatihatian dia bilang ke saya kalau dia sudah sepuluh tahun tidak</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['ucapan', 'takziah', 'ustad', 'atas', 'wafatnya', 'almarhum', 'ayahanda', 'jalaluddin', 'rahmat', 'dan', 'almarhumah', 'ibunda', 'tercint']</t>
+          <t>['dia', 'memang', 'sosok', 'yang', 'penuh', 'kebijaksanaan', 'kehatihatian', 'dia', 'bilang', 'ke', 'saya', 'kalau', 'dia', 'sudah', 'sepuluh', 'tahun', 'tidak']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['dia', 'memang', 'sosok', 'yang', 'penuh', 'kebijaksanaan', 'kehatihatian', 'dia', 'bilang', 'ke', 'saya', 'kalau', 'dia', 'sudah', 'sepuluh', 'tahun', 'tidak']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['ucapan', 'takziah', 'ustad', 'wafatnya', 'almarhum', 'ayahanda', 'jalaluddin', 'rahmat', 'almarhumah', 'ibunda', 'tercint']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['ucap', 'takziah', 'ustad', 'wafat', 'almarhum', 'ayahanda', 'jalaluddin', 'rahmat', 'almarhumah', 'ibunda', 'tercint']</t>
+          <t>['sosok', 'penuh', 'kebijaksanaan', 'kehatihatian', 'sepuluh']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['sosok', 'penuh', 'bijaksana', 'kehatihatian', 'puluh']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17359</v>
+        <v>28128</v>
       </c>
       <c r="C17" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt lahul faatehah maa shalawat mari bersama kita menyimak ustad musa kazhim alhabsyi bagaimana kenangannya ttg almarhum</t>
+          <t>kesan paus fransiskus setelah pertemuan dengan ayatullah sistani saya merasa berkewajiban dalam ziarah spritu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt', 'lahul', 'faatehah', 'maa', 'shalawat', 'mari', 'bersama', 'kita', 'menyimak', 'ustad', 'musa', 'kazhim', 'alhabsyi', 'bagaimana', 'kenangannya', 'ttg', 'almarhum']</t>
+          <t>['kesan', 'paus', 'fransiskus', 'setelah', 'pertemuan', 'dengan', 'ayatullah', 'sistani', 'saya', 'merasa', 'berkewajiban', 'dalam', 'ziarah', 'spritu']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['kesan', 'paus', 'fransiskus', 'setelah', 'pertemuan', 'dengan', 'ayatullah', 'sistani', 'saya', 'merasa', 'berkewajiban', 'dalam', 'ziarah', 'spritu']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['lahul', 'faatehah', 'maa', 'shalawat', 'mari', 'menyimak', 'ustad', 'musa', 'kazhim', 'alhabsyi', 'kenangannya', 'ttg', 'almarhum']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['lahul', 'faatehah', 'maa', 'shalawat', 'mari', 'simak', 'ustad', 'musa', 'kazhim', 'alhabsyi', 'kenang', 'ttg', 'almarhum']</t>
+          <t>['kesan', 'paus', 'fransiskus', 'pertemuan', 'ayatullah', 'sistani', 'berkewajiban', 'ziarah', 'spritu']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['kesan', 'paus', 'fransiskus', 'temu', 'ayatullah', 'sistani', 'wajib', 'ziarah', 'spritu']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>17360</v>
+        <v>28129</v>
       </c>
       <c r="C18" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>dengan kerendahan hati yg tulus saya ingin mengenang guru tercinta almarhum wal maghfur kh jalaluddin rahmat</t>
+          <t>rt hidup yang tidak tersentuh kotoran tinta remasan tangan atau tindihan cetakan adalah hidup polos tanpa makna hanya indah dij</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['dengan', 'kerendahan', 'hati', 'yg', 'tulus', 'saya', 'ingin', 'mengenang', 'guru', 'tercinta', 'almarhum', 'wal', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
+          <t>['rt', 'hidup', 'yang', 'tidak', 'tersentuh', 'kotoran', 'tinta', 'remasan', 'tangan', 'atau', 'tindihan', 'cetakan', 'adalah', 'hidup', 'polos', 'tanpa', 'makna', 'hanya', 'indah', 'dij']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'hidup', 'yang', 'tidak', 'tersentuh', 'kotoran', 'tinta', 'remasan', 'tangan', 'atau', 'tindihan', 'cetakan', 'adalah', 'hidup', 'polos', 'tanpa', 'makna', 'hanya', 'indah', 'dij']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['kerendahan', 'hati', 'tulus', 'mengenang', 'guru', 'tercinta', 'almarhum', 'wal', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['rendah', 'hati', 'tulus', 'kenang', 'guru', 'cinta', 'almarhum', 'wal', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
+          <t>['hidup', 'tersentuh', 'kotoran', 'tinta', 'remasan', 'tangan', 'tindihan', 'cetakan', 'hidup', 'polos', 'makna', 'indah', 'dij']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['hidup', 'sentuh', 'kotor', 'tinta', 'remas', 'tangan', 'tindih', 'cetak', 'hidup', 'polos', 'makna', 'indah', 'dij']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17361</v>
+        <v>28130</v>
       </c>
       <c r="C19" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>hqq siap beb</t>
+          <t>kunjungan paus ke irak peran ulama irak lindungi minoritas via</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['hqq', 'siap', 'beb']</t>
+          <t>['kunjungan', 'paus', 'ke', 'irak', 'peran', 'ulama', 'irak', 'lindungi', 'minoritas', 'via']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kunjungan', 'paus', 'ke', 'irak', 'peran', 'ulama', 'irak', 'lindungi', 'minoritas', 'via']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['hqq', 'beb']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['hqq', 'beb']</t>
+          <t>['kunjungan', 'paus', 'irak', 'peran', 'ulama', 'irak', 'lindungi', 'minoritas', 'via']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['kunjung', 'paus', 'irak', 'peran', 'ulama', 'irak', 'lindung', 'minoritas', 'via']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17362</v>
+        <v>28131</v>
       </c>
       <c r="C20" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>imam jafar shadiq dalam alwasail bab amar maruf nahi munkar hadis terakhir sikap keras ekstrem dalam beraga</t>
+          <t>rt analis timur tengah tak sependapat dgn ustaz khalid basalamah yang menilai perang di yaman sebagai konflik sunnisyiah</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['imam', 'jafar', 'shadiq', 'dalam', 'alwasail', 'bab', 'amar', 'maruf', 'nahi', 'munkar', 'hadis', 'terakhir', 'sikap', 'keras', 'ekstrem', 'dalam', 'beraga']</t>
+          <t>['rt', 'analis', 'timur', 'tengah', 'tak', 'sependapat', 'dgn', 'ustaz', 'khalid', 'basalamah', 'yang', 'menilai', 'perang', 'di', 'yaman', 'sebagai', 'konflik', 'sunnisyiah']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'analis', 'timur', 'tengah', 'tak', 'sependapat', 'dengan', 'ustaz', 'khalid', 'basalamah', 'yang', 'menilai', 'perang', 'di', 'yaman', 'sebagai', 'konflik', 'sunnisyiah']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['imam', 'jafar', 'shadiq', 'alwasail', 'bab', 'amar', 'maruf', 'nahi', 'munkar', 'hadis', 'sikap', 'keras', 'ekstrem', 'beraga']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['imam', 'jafar', 'shadiq', 'alwasail', 'bab', 'amar', 'maruf', 'nahi', 'munkar', 'hadis', 'sikap', 'keras', 'ekstrem', 'aga']</t>
+          <t>['analis', 'timur', 'sependapat', 'ustaz', 'khalid', 'basalamah', 'menilai', 'perang', 'yaman', 'konflik', 'sunnisyiah']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['analis', 'timur', 'dapat', 'ustaz', 'khalid', 'basalamah', 'nilai', 'perang', 'yaman', 'konflik', 'sunnisyiah']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17363</v>
+        <v>28132</v>
       </c>
       <c r="C21" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>syukron beb</t>
+          <t>rt selamat berakhir pekan</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['syukron', 'beb']</t>
+          <t>['rt', 'selamat', 'berakhir', 'pekan']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'berakhir', 'pekan']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['syukron', 'beb']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['syukron', 'beb']</t>
+          <t>['selamat', 'pekan']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['selamat', 'pekan']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>17364</v>
+        <v>28133</v>
       </c>
       <c r="C22" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>dirs terima kasih untuk abangku gus nadir yg terus tanpa lelah mengajarkan islam yang ramah dan toleran semoga</t>
+          <t>hapal tidak harus tapi yg harus adalah mengetahui meneliti ribuan hadis termasuk teks dan konteks serta jalur sanadnya</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['dirs', 'terima', 'kasih', 'untuk', 'abangku', 'gus', 'nadir', 'yg', 'terus', 'tanpa', 'lelah', 'mengajarkan', 'islam', 'yang', 'ramah', 'dan', 'toleran', 'semoga']</t>
+          <t>['hapal', 'tidak', 'harus', 'tapi', 'yg', 'harus', 'adalah', 'mengetahui', 'meneliti', 'ribuan', 'hadis', 'termasuk', 'teks', 'dan', 'konteks', 'serta', 'jalur', 'sanadnya']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['hafal', 'tidak', 'harus', 'tapi', 'yang', 'harus', 'adalah', 'mengetahui', 'meneliti', 'ribuan', 'hadis', 'termasuk', 'teks', 'dan', 'konteks', 'serta', 'jalur', 'sanadnya']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['dirs', 'terima', 'kasih', 'abangku', 'gus', 'nadir', 'lelah', 'mengajarkan', 'islam', 'ramah', 'toleran', 'semoga']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['dirs', 'terima', 'kasih', 'abang', 'gus', 'nadir', 'lelah', 'ajar', 'islam', 'ramah', 'toleran', 'moga']</t>
+          <t>['hafal', 'meneliti', 'ribuan', 'hadis', 'teks', 'konteks', 'jalur', 'sanadnya']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['hafal', 'teliti', 'ribu', 'hadis', 'teks', 'konteks', 'jalur', 'sanad']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>17365</v>
+        <v>28134</v>
       </c>
       <c r="C23" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt dirs ustad maaher meninggal tak ada cacimaki malah mendoakan beliau kang jalal meninggal banyak yg tega mencaci yahudi meni</t>
+          <t>ayatullah biasanya untuk yg sdh mujtahid dan mengajar bahtsul kharij semacam bahtsul masail tapi ayatu</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'dirs', 'ustad', 'maaher', 'meninggal', 'tak', 'ada', 'cacimaki', 'malah', 'mendoakan', 'beliau', 'kang', 'jalal', 'meninggal', 'banyak', 'yg', 'tega', 'mencaci', 'yahudi', 'meni']</t>
+          <t>['ayatullah', 'biasanya', 'untuk', 'yg', 'sdh', 'mujtahid', 'dan', 'mengajar', 'bahtsul', 'kharij', 'semacam', 'bahtsul', 'masail', 'tapi', 'ayatu']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['ayatullah', 'biasanya', 'untuk', 'yang', 'sudah', 'mujtahid', 'dan', 'mengajar', 'bahtsul', 'kharij', 'semacam', 'bahtsul', 'masail', 'tapi', 'ayatu']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['dirs', 'ustad', 'maaher', 'meninggal', 'cacimaki', 'mendoakan', 'beliau', 'kang', 'jalal', 'meninggal', 'tega', 'mencaci', 'yahudi', 'meni']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['dirs', 'ustad', 'maaher', 'tinggal', 'cacimaki', 'doa', 'beliau', 'kang', 'jalal', 'tinggal', 'tega', 'caci', 'yahudi', 'meni']</t>
+          <t>['ayatullah', 'mujtahid', 'mengajar', 'bahtsul', 'kharij', 'bahtsul', 'masail', 'ayatu']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['ayatullah', 'mujtahid', 'ajar', 'bahtsul', 'kharij', 'bahtsul', 'masail', 'ayatu']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>17366</v>
+        <v>28135</v>
       </c>
       <c r="C24" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>silahkan yg ingin bergabung dalam webinar tentang murtadha muthahhari bsk semoga bermanfaat</t>
+          <t>beliau juga murid dari ayatullah al khoei</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['silahkan', 'yg', 'ingin', 'bergabung', 'dalam', 'webinar', 'tentang', 'murtadha', 'muthahhari', 'bsk', 'semoga', 'bermanfaat']</t>
+          <t>['beliau', 'juga', 'murid', 'dari', 'ayatullah', 'al', 'khoei']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['beliau', 'juga', 'murid', 'dari', 'ayatullah', 'al', 'khoei']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['silahkan', 'bergabung', 'webinar', 'murtadha', 'muthahhari', 'bsk', 'semoga', 'bermanfaat']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['silah', 'gabung', 'webinar', 'murtadha', 'muthahhari', 'bsk', 'moga', 'manfaat']</t>
+          <t>['beliau', 'murid', 'ayatullah', 'al', 'khoei']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['beliau', 'murid', 'ayatullah', 'al', 'khoei']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>17367</v>
+        <v>28136</v>
       </c>
       <c r="C25" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>siap insyallah</t>
+          <t xml:space="preserve"> great spectacle</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['siap', 'insyallah']</t>
+          <t>['great', 'spectacle']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['great', 'spectacle']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['insyallah']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['insyallah']</t>
+          <t>['great', 'spectacle']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['great', 'spectacle']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17368</v>
+        <v>28137</v>
       </c>
       <c r="C26" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>saya sudah tidak ingat kapan persisnya tapi saya masih ingat detil kejadiannya di akhir sebelum genap berus</t>
+          <t>rt sayidina ali membebaskan seribu budak dengan uang yang didapatnya melalui kerja keras dan keringatnya di jalan allah demi terb</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['saya', 'sudah', 'tidak', 'ingat', 'kapan', 'persisnya', 'tapi', 'saya', 'masih', 'ingat', 'detil', 'kejadiannya', 'di', 'akhir', 'sebelum', 'genap', 'berus']</t>
+          <t>['rt', 'sayidina', 'ali', 'membebaskan', 'seribu', 'budak', 'dengan', 'uang', 'yang', 'didapatnya', 'melalui', 'kerja', 'keras', 'dan', 'keringatnya', 'di', 'jalan', 'allah', 'demi', 'terb']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'sayidina', 'ali', 'membebaskan', 'seribu', 'budak', 'dengan', 'uang', 'yang', 'didapatnya', 'melalui', 'kerja', 'keras', 'dan', 'keringatnya', 'di', 'jalan', 'allah', 'demi', 'terb']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['persisnya', 'detil', 'kejadiannya', 'genap', 'berus']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['persis', 'detil', 'jadi', 'genap', 'berus']</t>
+          <t>['sayidina', 'ali', 'membebaskan', 'seribu', 'budak', 'uang', 'didapatnya', 'kerja', 'keras', 'keringatnya', 'jalan', 'allah', 'terb']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['sayidina', 'ali', 'bebas', 'ribu', 'budak', 'uang', 'dapat', 'kerja', 'keras', 'keringat', 'jalan', 'allah', 'terb']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>17369</v>
+        <v>28138</v>
       </c>
       <c r="C27" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rt mungkin di belakang hari memilih jalur pemikiran yang berbeda dari arus utama cendekiawan muslim indonesia tetapi hal it</t>
+          <t>rt bagir benar sekali pernyataan alm mas prie ini sayangnya tak banyak ulama kita yg melewati jalan seni ini maka kdg agama yg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'mungkin', 'di', 'belakang', 'hari', 'memilih', 'jalur', 'pemikiran', 'yang', 'berbeda', 'dari', 'arus', 'utama', 'cendekiawan', 'muslim', 'indonesia', 'tetapi', 'hal', 'it']</t>
+          <t>['rt', 'bagir', 'benar', 'sekali', 'pernyataan', 'alm', 'mas', 'prie', 'ini', 'sayangnya', 'tak', 'banyak', 'ulama', 'kita', 'yg', 'melewati', 'jalan', 'seni', 'ini', 'maka', 'kdg', 'agama', 'yg']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'bagir', 'benar', 'sekali', 'pernyataan', 'almarhum', 'mas', 'prie', 'ini', 'sayangnya', 'tak', 'banyak', 'ulama', 'kita', 'yang', 'melewati', 'jalan', 'seni', 'ini', 'maka', 'kadang', 'agama', 'yang']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['memilih', 'jalur', 'pemikiran', 'berbeda', 'arus', 'utama', 'cendekiawan', 'muslim', 'indonesia', 'it']</t>
+          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['pilih', 'jalur', 'pikir', 'beda', 'arus', 'utama', 'cendekiawan', 'muslim', 'indonesia', 'it']</t>
+          <t>['bagir', 'pernyataan', 'almarhum', 'mas', 'prie', 'sayangnya', 'ulama', 'melewati', 'jalan', 'seni', 'kadang', 'agama']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['bagir', 'nyata', 'almarhum', 'mas', 'prie', 'sayang', 'ulama', 'lewat', 'jalan', 'seni', 'kadang', 'agama']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>17370</v>
+        <v>28139</v>
       </c>
       <c r="C28" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rt bagir kang jalaluddin rakhmat bukan cuma seseorg yg cerdas amp meluas ilmunya melainkan juga pencinta amp penolong dhuafa serta</t>
+          <t>atmubarokah imam musa alkazhim siapa yang membuat sedih kedua orangtuanya berarti telah mendurhakainya</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'bagir', 'kang', 'jalaluddin', 'rakhmat', 'bukan', 'cuma', 'seseorg', 'yg', 'cerdas', 'amp', 'meluas', 'ilmunya', 'melainkan', 'juga', 'pencinta', 'amp', 'penolong', 'dhuafa', 'serta']</t>
+          <t>['atmubarokah', 'imam', 'musa', 'alkazhim', 'siapa', 'yang', 'membuat', 'sedih', 'kedua', 'orangtuanya', 'berarti', 'telah', 'mendurhakainya']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['atmubarokah', 'imam', 'musa', 'alkazhim', 'siapa', 'yang', 'membuat', 'sedih', 'kedua', 'orang, tuanya', 'berarti', 'telah', 'mendurhakainya']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['bagir', 'kang', 'jalaluddin', 'rakhmat', 'seseorg', 'cerdas', 'meluas', 'ilmunya', 'pencinta', 'penolong', 'dhuafa']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['bagir', 'kang', 'jalaluddin', 'rakhmat', 'seseorg', 'cerdas', 'luas', 'ilmu', 'cinta', 'tolong', 'dhuafa']</t>
+          <t>['atmubarokah', 'imam', 'musa', 'alkazhim', 'sedih', 'orang, tuanya', 'mendurhakainya']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['atmubarokah', 'imam', 'musa', 'alkazhim', 'sedih', 'orang tua', 'durhaka']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1583,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>17371</v>
+        <v>28140</v>
       </c>
       <c r="C29" t="n">
-        <v>215</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">rt semoga allah membalas jasa intelektual kang jalal yg besar ini saya amat bersedih dengan perginya salah satu best mind di </t>
-        </is>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'semoga', 'allah', 'membalas', 'jasa', 'intelektual', 'kang', 'jalal', 'yg', 'besar', 'ini', 'saya', 'amat', 'bersedih', 'dengan', 'perginya', 'salah', 'satu', 'best', 'mind', 'di']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['semoga', 'allah', 'membalas', 'jasa', 'intelektual', 'kang', 'jalal', 'bersedih', 'perginya', 'salah', 'best', 'mind']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['moga', 'allah', 'balas', 'jasa', 'intelektual', 'kang', 'jalal', 'sedih', 'pergi', 'salah', 'best', 'mind']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1620,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17372</v>
+        <v>28141</v>
       </c>
       <c r="C30" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rt bagi saya era an yakni era ketika kang jalal mulai muncul sebagai magnet intelektual baru di bandung adalah era keemasan pe</t>
+          <t xml:space="preserve">rt bagir paus fransiskus berkunjung ke iraq dan bertemu ayatullah sistani pemimpin spiritual tertinggi syiah di sana di sudut </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'bagi', 'saya', 'era', 'an', 'yakni', 'era', 'ketika', 'kang', 'jalal', 'mulai', 'muncul', 'sebagai', 'magnet', 'intelektual', 'baru', 'di', 'bandung', 'adalah', 'era', 'keemasan', 'pe']</t>
+          <t>['rt', 'bagir', 'paus', 'fransiskus', 'berkunjung', 'ke', 'iraq', 'dan', 'bertemu', 'ayatullah', 'sistani', 'pemimpin', 'spiritual', 'tertinggi', 'syiah', 'di', 'sana', 'di', 'sudut']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'bagir', 'paus', 'fransiskus', 'berkunjung', 'ke', 'iraq', 'dan', 'bertemu', 'ayatullah', 'sistani', 'pemimpin', 'spiritual', 'tertinggi', 'syiah', 'di', 'sana', 'di', 'sudut']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['era', 'an', 'era', 'kang', 'jalal', 'muncul', 'magnet', 'intelektual', 'bandung', 'era', 'keemasan', 'pe']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['era', 'an', 'era', 'kang', 'jalal', 'muncul', 'magnet', 'intelektual', 'bandung', 'era', 'emas', 'pe']</t>
+          <t>['bagir', 'paus', 'fransiskus', 'berkunjung', 'iraq', 'bertemu', 'ayatullah', 'sistani', 'pemimpin', 'spiritual', 'tertinggi', 'syiah', 'sudut']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['bagir', 'paus', 'fransiskus', 'kunjung', 'iraq', 'temu', 'ayatullah', 'sistani', 'pimpin', 'spiritual', 'tinggi', 'syiah', 'sudut']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1661,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17373</v>
+        <v>28142</v>
       </c>
       <c r="C31" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rt laksono hatur nuhun kang dekan semoga sehat juga</t>
+          <t>imam ali di antara kesukaran dunia manusianya mengumpulkan yg tak dimakannya membangun yg tak ditempatinya lal</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rt', 'laksono', 'hatur', 'nuhun', 'kang', 'dekan', 'semoga', 'sehat', 'juga']</t>
+          <t>['imam', 'ali', 'di', 'antara', 'kesukaran', 'dunia', 'manusianya', 'mengumpulkan', 'yg', 'tak', 'dimakannya', 'membangun', 'yg', 'tak', 'ditempatinya', 'lal']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['imam', 'ali', 'di', 'antara', 'kesukaran', 'dunia', 'manusianya', 'mengumpulkan', 'yang', 'tak', 'dimakannya', 'membangun', 'yang', 'tak', 'ditempatinya', 'lal']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['laksono', 'hatur', 'nuhun', 'kang', 'dekan', 'semoga', 'sehat']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['laksono', 'hatur', 'nuhun', 'kang', 'dekan', 'moga', 'sehat']</t>
+          <t>['imam', 'ali', 'kesukaran', 'dunia', 'manusianya', 'mengumpulkan', 'dimakannya', 'membangun', 'ditempatinya', 'lal']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['imam', 'ali', 'sukar', 'dunia', 'manusia', 'kumpul', 'makan', 'bangun', 'tempat', 'lal']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1702,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>17374</v>
+        <v>28143</v>
       </c>
       <c r="C32" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>semoga allah melimpahkan rahmat dan maghfirah buat almarhum guru kita ini</t>
+          <t>rt ustadz musa alhabsyi mencerahkan kita via akun sila follow upaya sbagian org membatasi makna hadi</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['semoga', 'allah', 'melimpahkan', 'rahmat', 'dan', 'maghfirah', 'buat', 'almarhum', 'guru', 'kita', 'ini']</t>
+          <t>['rt', 'ustadz', 'musa', 'alhabsyi', 'mencerahkan', 'kita', 'via', 'akun', 'sila', 'follow', 'upaya', 'sbagian', 'org', 'membatasi', 'makna', 'hadi']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'ustaz', 'musa', 'alhabsyi', 'mencerahkan', 'kita', 'via', 'akun', 'sila', 'follow', 'upaya', 'sbagian', 'orang', 'membatasi', 'makna', 'hadi']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['semoga', 'allah', 'melimpahkan', 'rahmat', 'maghfirah', 'almarhum', 'guru']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['moga', 'allah', 'limpah', 'rahmat', 'maghfirah', 'almarhum', 'guru']</t>
+          <t>['ustaz', 'musa', 'alhabsyi', 'mencerahkan', 'via', 'akun', 'sila', 'follow', 'upaya', 'sbagian', 'orang', 'membatasi', 'makna', 'hadi']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['ustaz', 'musa', 'alhabsyi', 'cerah', 'via', 'akun', 'sila', 'follow', 'upaya', 'sbagian', 'orang', 'batas', 'makna', 'had']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1743,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>17375</v>
+        <v>28144</v>
       </c>
       <c r="C33" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>kami turut berduka cita yg mendalam atas meninggalnya salah satu cendikiawan muslim terbaik indonesia bapak jalalu</t>
+          <t xml:space="preserve">rt ir  am pleased amp thankful that the famous authors mr sulayman kattanis writing skills talent amp knowledge </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['kami', 'turut', 'berduka', 'cita', 'yg', 'mendalam', 'atas', 'meninggalnya', 'salah', 'satu', 'cendikiawan', 'muslim', 'terbaik', 'indonesia', 'bapak', 'jalalu']</t>
+          <t>['rt', 'ir', 'am', 'pleased', 'amp', 'thankful', 'that', 'the', 'famous', 'authors', 'mr', 'sulayman', 'kattanis', 'writing', 'skills', 'talent', 'amp', 'knowledge']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'insinyur', 'am', 'pleased', 'amp', 'terima, kasih, banyak', 'that', 'the', 'famous', 'authors', 'mr', 'sulayman', 'kattanis', 'writing', 'skills', 'talent', 'amp', 'knowledge']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['berduka', 'cita', 'mendalam', 'meninggalnya', 'salah', 'cendikiawan', 'muslim', 'terbaik', 'indonesia', 'jalalu']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['duka', 'cita', 'dalam', 'tinggal', 'salah', 'cendikiawan', 'muslim', 'baik', 'indonesia', 'jalalu']</t>
+          <t>['insinyur', 'am', 'pleased', 'terima, kasih, banyak', 'that', 'the', 'famous', 'authors', 'mr', 'sulayman', 'kattanis', 'writing', 'skills', 'talent', 'knowledge']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['insinyur', 'am', 'pleased', 'terima kasih banyak', 'that', 'the', 'famous', 'authors', 'mr', 'sulayman', 'kattanis', 'writing', 'skills', 'talent', 'knowledge']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1784,35 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>17376</v>
+        <v>28145</v>
       </c>
       <c r="C34" t="n">
-        <v>215</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>silahkan ikuti diskusi seputar serangan atas yaman yg sdh berjalan hari labih semoga bermanfaat</t>
-        </is>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['silahkan', 'ikuti', 'diskusi', 'seputar', 'serangan', 'atas', 'yaman', 'yg', 'sdh', 'berjalan', 'hari', 'labih', 'semoga', 'bermanfaat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['silahkan', 'ikuti', 'diskusi', 'seputar', 'serangan', 'yaman', 'berjalan', 'labih', 'semoga', 'bermanfaat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['silah', 'ikut', 'diskusi', 'putar', 'serang', 'yaman', 'jalan', 'labih', 'moga', 'manfaat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1821,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>17377</v>
+        <v>28146</v>
       </c>
       <c r="C35" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>atmubarakah rasulullah seburuk hamba adalah yg suka berlaku buruk dan bersikap kotor pada yg lain</t>
+          <t>rt berbagai dalil menunjukkan semua ajakan kepedulian terhadap sesama muslim itu tidak dapat dibatasi pada golongan muslim terte</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['atmubarakah', 'rasulullah', 'seburuk', 'hamba', 'adalah', 'yg', 'suka', 'berlaku', 'buruk', 'dan', 'bersikap', 'kotor', 'pada', 'yg', 'lain']</t>
+          <t>['rt', 'berbagai', 'dalil', 'menunjukkan', 'semua', 'ajakan', 'kepedulian', 'terhadap', 'sesama', 'muslim', 'itu', 'tidak', 'dapat', 'dibatasi', 'pada', 'golongan', 'muslim', 'terte']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'berbagai', 'dalil', 'menunjukkan', 'semua', 'ajakan', 'kepedulian', 'terhadap', 'sesama', 'muslim', 'itu', 'tidak', 'dapat', 'dibatasi', 'pada', 'golongan', 'muslim', 'terte']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['atmubarakah', 'rasulullah', 'seburuk', 'hamba', 'suka', 'berlaku', 'buruk', 'bersikap', 'kotor']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['atmubarakah', 'rasulullah', 'buruk', 'hamba', 'suka', 'laku', 'buruk', 'sikap', 'kotor']</t>
+          <t>['dalil', 'ajakan', 'kepedulian', 'muslim', 'dibatasi', 'golongan', 'muslim', 'terte']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['dalil', 'aja', 'peduli', 'muslim', 'batas', 'golong', 'muslim', 'terte']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1862,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>17378</v>
+        <v>28147</v>
       </c>
       <c r="C36" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>diskusi seputar putri tercinta rasul sayyidah fatimah azzahra yang beliau sebut dalam hadis shahih sebagai belahan</t>
+          <t xml:space="preserve">rt aksi mobilisasi dukungan  konflik suriah misalnya kita sering mendengar provokasi dengan dalih ihtimam bi amril muslimin </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['diskusi', 'seputar', 'putri', 'tercinta', 'rasul', 'sayyidah', 'fatimah', 'azzahra', 'yang', 'beliau', 'sebut', 'dalam', 'hadis', 'shahih', 'sebagai', 'belahan']</t>
+          <t>['rt', 'aksi', 'mobilisasi', 'dukungan', 'konflik', 'suriah', 'misalnya', 'kita', 'sering', 'mendengar', 'provokasi', 'dengan', 'dalih', 'ihtimam', 'bi', 'amril', 'muslimin']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'aksi', 'mobilisasi', 'dukungan', 'konflik', 'suriah', 'misalnya', 'kita', 'sering', 'mendengar', 'provokasi', 'dengan', 'dalih', 'ihtimam', 'bi', 'amril', 'muslimin']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['diskusi', 'seputar', 'putri', 'tercinta', 'rasul', 'sayyidah', 'fatimah', 'azzahra', 'beliau', 'hadis', 'shahih', 'belahan']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['diskusi', 'putar', 'putri', 'cinta', 'rasul', 'sayyidah', 'fatimah', 'azzahra', 'beliau', 'hadis', 'shahih', 'bahan']</t>
+          <t>['aksi', 'mobilisasi', 'dukungan', 'konflik', 'suriah', 'mendengar', 'provokasi', 'dalih', 'ihtimam', 'bi', 'amril', 'muslimin']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['aksi', 'mobilisasi', 'dukung', 'konflik', 'suriah', 'dengar', 'provokasi', 'dalih', 'ihtimam', 'bi', 'amril', 'muslimin']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1903,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>17379</v>
+        <v>28148</v>
       </c>
       <c r="C37" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>innalillahi wa inna ilayhi rajiun turut berduka cita yg mendalam atas wafatnya ibu jalaluddin rahmat ibu dari us</t>
+          <t>rt bagir pada an kita bisa kagum pd syariati amp muthahhari tnp ngeh bhw mrk syiah sbgmn kita kagum pd fazlur rahman amp hasan tur</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'turut', 'berduka', 'cita', 'yg', 'mendalam', 'atas', 'wafatnya', 'ibu', 'jalaluddin', 'rahmat', 'ibu', 'dari', 'us']</t>
+          <t>['rt', 'bagir', 'pada', 'an', 'kita', 'bisa', 'kagum', 'pd', 'syariati', 'amp', 'muthahhari', 'tnp', 'ngeh', 'bhw', 'mrk', 'syiah', 'sbgmn', 'kita', 'kagum', 'pd', 'fazlur', 'rahman', 'amp', 'hasan', 'tur']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'bagir', 'pada', 'an', 'kita', 'bisa', 'kagum', 'pada', 'syariati', 'amp', 'muthahhari', 'tanpa', 'tau', 'bahwa', 'mereka', 'syiah', 'sbgmn', 'kita', 'kagum', 'pada', 'fazlur', 'rahman', 'amp', 'hasan', 'tur']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'berduka', 'cita', 'mendalam', 'wafatnya', 'jalaluddin', 'rahmat', 'us']</t>
+          <t>&lt;FreqDist with 20 samples and 25 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'duka', 'cita', 'dalam', 'wafat', 'jalaluddin', 'rahmat', 'us']</t>
+          <t>['bagir', 'an', 'kagum', 'syariati', 'muthahhari', 'syiah', 'sbgmn', 'kagum', 'fazlur', 'rahman', 'hasan', 'tur']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['bagir', 'an', 'kagum', 'syariat', 'muthahhari', 'syiah', 'sbgmn', 'kagum', 'fazlur', 'rahman', 'hasan', 'tur']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1944,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>17380</v>
+        <v>28149</v>
       </c>
       <c r="C38" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>mungkin biar imunitas tubuh kita terlatih ya wallahu aalam</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['mungkin', 'biar', 'imunitas', 'tubuh', 'kita', 'terlatih', 'ya', 'wallahu', 'aalam']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['mungkin', 'biar', 'imunitas', 'tubuh', 'kita', 'terlatih', 'ya', 'wallahu', 'aalam']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['imunitas', 'tubuh', 'terlatih', 'wallahu', 'aalam']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['imunitas', 'tubuh', 'latih', 'wallahu', 'aalam']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1985,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17381</v>
+        <v>28150</v>
       </c>
       <c r="C39" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>kena covid</t>
+          <t>salam atasmu wahai srikandi karbala putri zahra yang menjasadkan kepahlawanan dalam balutan kesucian ibu yang penu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['kena', 'covid']</t>
+          <t>['salam', 'atasmu', 'wahai', 'srikandi', 'karbala', 'putri', 'zahra', 'yang', 'menjasadkan', 'kepahlawanan', 'dalam', 'balutan', 'kesucian', 'ibu', 'yang', 'penu']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['salam', 'atasmu', 'wahai', 'srikandi', 'karbala', 'putri', 'zahra', 'yang', 'menjasadkan', 'kepahlawanan', 'dalam', 'balutan', 'kesucian', 'ibu', 'yang', 'penu']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['kena', 'covid']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['kena', 'covid']</t>
+          <t>['salam', 'atasmu', 'srikandi', 'karbala', 'putri', 'zahra', 'menjasadkan', 'kepahlawanan', 'balutan', 'kesucian', 'penu']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['salam', 'atas', 'srikandi', 'karbala', 'putri', 'zahra', 'jasad', 'pahlawan', 'balut', 'suci', 'penu']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2026,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17382</v>
+        <v>28151</v>
       </c>
       <c r="C40" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>mari kita doakan guru kita ust jalaluddin rahmat dan ibu jalal disembuhkan dari segala penyakit dan keluarga beliau</t>
+          <t>di pagi yg indah ini marilah kita berdoa agar allah memberi kesembuhan yg sakit terutama yang terkena covid di tanah air</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'doakan', 'guru', 'kita', 'ust', 'jalaluddin', 'rahmat', 'dan', 'ibu', 'jalal', 'disembuhkan', 'dari', 'segala', 'penyakit', 'dan', 'keluarga', 'beliau']</t>
+          <t>['di', 'pagi', 'yg', 'indah', 'ini', 'marilah', 'kita', 'berdoa', 'agar', 'allah', 'memberi', 'kesembuhan', 'yg', 'sakit', 'terutama', 'yang', 'terkena', 'covid', 'di', 'tanah', 'air']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['di', 'pagi', 'yang', 'indah', 'ini', 'marilah', 'kita', 'berdoa', 'agar', 'allah', 'memberi', 'kesembuhan', 'yang', 'sakit', 'terutama', 'yang', 'terkena', 'covid', 'di', 'tanah', 'air']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['mari', 'doakan', 'guru', 'ust', 'jalaluddin', 'rahmat', 'jalal', 'disembuhkan', 'penyakit', 'keluarga', 'beliau']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['mari', 'doa', 'guru', 'ust', 'jalaluddin', 'rahmat', 'jalal', 'sembuh', 'sakit', 'keluarga', 'beliau']</t>
+          <t>['pagi', 'indah', 'marilah', 'berdoa', 'allah', 'kesembuhan', 'sakit', 'terkena', 'covid', 'tanah', 'air']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['pagi', 'indah', 'mari', 'doa', 'allah', 'sembuh', 'sakit', 'kena', 'covid', 'tanah', 'air']</t>
         </is>
       </c>
     </row>
@@ -1879,30 +2067,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17383</v>
+        <v>28152</v>
       </c>
       <c r="C41" t="n">
-        <v>215</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>331</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>rasulullah hindari obat selama tubuhmu masih mampu menahan sakit jika sdh tidak mampu baru minumlah obat</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rasulullah', 'hindari', 'obat', 'selama', 'tubuhmu', 'masih', 'mampu', 'menahan', 'sakit', 'jika', 'sdh', 'tidak', 'mampu', 'baru', 'minumlah', 'obat']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rasulullah', 'hindari', 'obat', 'selama', 'tubuhmu', 'masih', 'mampu', 'menahan', 'sakit', 'jika', 'sudah', 'tidak', 'mampu', 'baru', 'minumlah', 'obat']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rasulullah', 'hindari', 'obat', 'tubuhmu', 'menahan', 'sakit', 'minumlah', 'obat']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['rasulullah', 'hindar', 'obat', 'tubuh', 'tahan', 'sakit', 'minum', 'obat']</t>
         </is>
       </c>
     </row>
@@ -1911,34 +2108,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17384</v>
+        <v>28153</v>
       </c>
       <c r="C42" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>setuju</t>
+          <t>podcast indonesia kriminalisasi ulama di arab saudi kasus syeikh hassan farhan al maliki</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['setuju']</t>
+          <t>['podcast', 'indonesia', 'kriminalisasi', 'ulama', 'di', 'arab', 'saudi', 'kasus', 'syeikh', 'hassan', 'farhan', 'al', 'maliki']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['podcast', 'indonesia', 'kriminalisasi', 'ulama', 'di', 'arab', 'saudi', 'kasus', 'syekh', 'hasan', 'farhan', 'al', 'maliki']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['setuju']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['tuju']</t>
+          <t>['podcast', 'indonesia', 'kriminalisasi', 'ulama', 'arab', 'saudi', 'syekh', 'hasan', 'farhan', 'al', 'maliki']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['podcast', 'indonesia', 'kriminalisasi', 'ulama', 'arab', 'saudi', 'syekh', 'hasan', 'farhan', 'al', 'maliki']</t>
         </is>
       </c>
     </row>
@@ -1947,34 +2149,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17385</v>
+        <v>28154</v>
       </c>
       <c r="C43" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>atberkah rasulullah menuntut ilmu adalah wajib bagi tiap muslim ketahuilah sesungguhnya allah mencintai par</t>
+          <t xml:space="preserve">rt kehendak adalah sumber segala tujuan manusia kehendak bisa menjadi suatu yang terintegrasi atau terdisintegrasi integritas </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['atberkah', 'rasulullah', 'menuntut', 'ilmu', 'adalah', 'wajib', 'bagi', 'tiap', 'muslim', 'ketahuilah', 'sesungguhnya', 'allah', 'mencintai', 'par']</t>
+          <t>['rt', 'kehendak', 'adalah', 'sumber', 'segala', 'tujuan', 'manusia', 'kehendak', 'bisa', 'menjadi', 'suatu', 'yang', 'terintegrasi', 'atau', 'terdisintegrasi', 'integritas']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'kehendak', 'adalah', 'sumber', 'segala', 'tujuan', 'manusia', 'kehendak', 'bisa', 'menjadi', 'suatu', 'yang', 'terintegrasi', 'atau', 'terdisintegrasi', 'integritas']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['atberkah', 'rasulullah', 'menuntut', 'ilmu', 'wajib', 'muslim', 'ketahuilah', 'sesungguhnya', 'allah', 'mencintai', 'par']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['atberkah', 'rasulullah', 'tuntut', 'ilmu', 'wajib', 'muslim', 'tahu', 'sungguh', 'allah', 'cinta', 'par']</t>
+          <t>['kehendak', 'sumber', 'tujuan', 'manusia', 'kehendak', 'terintegrasi', 'terdisintegrasi', 'integritas']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['hendak', 'sumber', 'tuju', 'manusia', 'hendak', 'integrasi', 'disintegrasi', 'integritas']</t>
         </is>
       </c>
     </row>
@@ -1983,34 +2190,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17386</v>
+        <v>28155</v>
       </c>
       <c r="C44" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt jika perempuan di lingkungan keluarga dimuliakan maka bagian penting dari masalahmasalah yang terjadi di masyarakat akan </t>
+          <t>atmubarok imam jafar shodiq tahukan kalian panjangsingkatnya petaka mrk jawab tidak beliau berkata bi</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'jika', 'perempuan', 'di', 'lingkungan', 'keluarga', 'dimuliakan', 'maka', 'bagian', 'penting', 'dari', 'masalahmasalah', 'yang', 'terjadi', 'di', 'masyarakat', 'akan']</t>
+          <t>['atmubarok', 'imam', 'jafar', 'shodiq', 'tahukan', 'kalian', 'panjangsingkatnya', 'petaka', 'mrk', 'jawab', 'tidak', 'beliau', 'berkata', 'bi']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['atmubarok', 'imam', 'jafar', 'shodiq', 'tahukan', 'kalian', 'panjangsingkatnya', 'petaka', 'mereka', 'jawab', 'tidak', 'beliau', 'berkata', 'bi']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['perempuan', 'lingkungan', 'keluarga', 'dimuliakan', 'masalahmasalah', 'masyarakat']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['perempuan', 'lingkung', 'keluarga', 'mulia', 'masalahmasalah', 'masyarakat']</t>
+          <t>['atmubarok', 'imam', 'jafar', 'shodiq', 'tahukan', 'panjangsingkatnya', 'petaka', 'beliau', 'bi']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['atmubarok', 'imam', 'jafar', 'shodiq', 'tahu', 'panjangsingkatnya', 'petaka', 'beliau', 'bi']</t>
         </is>
       </c>
     </row>
@@ -2019,34 +2231,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17387</v>
+        <v>28156</v>
       </c>
       <c r="C45" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>silahkan mengikuti diskusi kami seputar mengapa islam berbeda semoga bermanfaat podcast indonesia mengapa isla</t>
+          <t>alhamdulillah hari ini diberi taufik berziarah ke makam guru tercinta almarhum kh jalaluddin rahmat</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['silahkan', 'mengikuti', 'diskusi', 'kami', 'seputar', 'mengapa', 'islam', 'berbeda', 'semoga', 'bermanfaat', 'podcast', 'indonesia', 'mengapa', 'isla']</t>
+          <t>['alhamdulillah', 'hari', 'ini', 'diberi', 'taufik', 'berziarah', 'ke', 'makam', 'guru', 'tercinta', 'almarhum', 'kh', 'jalaluddin', 'rahmat']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['alhamdulillah', 'hari', 'ini', 'diberi', 'taufik', 'berziarah', 'ke', 'makam', 'guru', 'tercinta', 'almarhum', 'kh', 'jalaluddin', 'rahmat']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['silahkan', 'mengikuti', 'diskusi', 'seputar', 'islam', 'berbeda', 'semoga', 'bermanfaat', 'podcast', 'indonesia', 'isla']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['silah', 'ikut', 'diskusi', 'putar', 'islam', 'beda', 'moga', 'manfaat', 'podcast', 'indonesia', 'isla']</t>
+          <t>['alhamdulillah', 'taufik', 'berziarah', 'makam', 'guru', 'tercinta', 'almarhum', 'kh', 'jalaluddin', 'rahmat']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'taufik', 'ziarah', 'makam', 'guru', 'cinta', 'almarhum', 'kh', 'jalaluddin', 'rahmat']</t>
         </is>
       </c>
     </row>
@@ -2055,34 +2272,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17388</v>
+        <v>28157</v>
       </c>
       <c r="C46" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>rt abdillahtoha saya tidak habis pikir apa maksud orang yg suka mengadu domba anies dgn risma atau pak jokowi dgn ibu susi dalam bah</t>
+          <t xml:space="preserve">rt kehidupan ini adalah sebuah pengkhianatan besar ia tidak pernah memberitahu kedatangan maut yang menggerumit kehidupan ini </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rt', 'abdillahtoha', 'saya', 'tidak', 'habis', 'pikir', 'apa', 'maksud', 'orang', 'yg', 'suka', 'mengadu', 'domba', 'anies', 'dgn', 'risma', 'atau', 'pak', 'jokowi', 'dgn', 'ibu', 'susi', 'dalam', 'bah']</t>
+          <t>['rt', 'kehidupan', 'ini', 'adalah', 'sebuah', 'pengkhianatan', 'besar', 'ia', 'tidak', 'pernah', 'memberitahu', 'kedatangan', 'maut', 'yang', 'menggerumit', 'kehidupan', 'ini']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 23 samples and 24 outcomes&gt;</t>
+          <t>['rt', 'kehidupan', 'ini', 'adalah', 'sebuah', 'pengkhianatan', 'besar', 'ia', 'tidak', 'pernah', 'memberitahu', 'kedatangan', 'maut', 'yang', 'menggerumit', 'kehidupan', 'ini']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['abdillahtoha', 'habis', 'pikir', 'maksud', 'orang', 'suka', 'mengadu', 'domba', 'anies', 'risma', 'jokowi', 'susi', 'bah']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['abdillahtoha', 'habis', 'pikir', 'maksud', 'orang', 'suka', 'adu', 'domba', 'anies', 'risma', 'jokowi', 'sus', 'bah']</t>
+          <t>['kehidupan', 'pengkhianatan', 'memberitahu', 'kedatangan', 'maut', 'menggerumit', 'kehidupan']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['hidup', 'khianat', 'memberitahu', 'datang', 'maut', 'gerumit', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -2091,34 +2313,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>17389</v>
+        <v>28158</v>
       </c>
       <c r="C47" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>rt negara dengan penduduk mayoritas muslim terbesar di dunia angka perceraiannya tinggi banget apakah islam gak mengajarka</t>
+          <t>wahai ali terimalah cintaku yg sederhana ini yg apa adanya ini kau adalah suluhku dalam kegalauan dan kesenderia</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'negara', 'dengan', 'penduduk', 'mayoritas', 'muslim', 'terbesar', 'di', 'dunia', 'angka', 'perceraiannya', 'tinggi', 'banget', 'apakah', 'islam', 'gak', 'mengajarka']</t>
+          <t>['wahai', 'ali', 'terimalah', 'cintaku', 'yg', 'sederhana', 'ini', 'yg', 'apa', 'adanya', 'ini', 'kau', 'adalah', 'suluhku', 'dalam', 'kegalauan', 'dan', 'kesenderia']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['wahai', 'ali', 'terimalah', 'cintaku', 'yang', 'sederhana', 'ini', 'yang', 'apa', 'adanya', 'ini', 'kamu', 'adalah', 'suluhku', 'dalam', 'kegalauan', 'dan', 'kesenderia']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['negara', 'penduduk', 'mayoritas', 'muslim', 'terbesar', 'dunia', 'angka', 'perceraiannya', 'banget', 'islam', 'mengajarka']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['negara', 'duduk', 'mayoritas', 'muslim', 'besar', 'dunia', 'angka', 'cerai', 'banget', 'islam', 'mengajarka']</t>
+          <t>['ali', 'terimalah', 'cintaku', 'sederhana', 'suluhku', 'kegalauan', 'kesenderia']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['ali', 'terima', 'cinta', 'sederhana', 'suluh', 'galau', 'kesenderia']</t>
         </is>
       </c>
     </row>
@@ -2127,34 +2354,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>17390</v>
+        <v>28159</v>
       </c>
       <c r="C48" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>atberkah rasulullah tiada perbuatan halal yang allah benci melebihi talakperceraian</t>
+          <t>rt sekiranya semua perbuatan ini suatu ketika mnjdi kesempurnaan bg pelakunya niscaya berakhlak mulia menjadi lebh indah dn lebh</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['atberkah', 'rasulullah', 'tiada', 'perbuatan', 'halal', 'yang', 'allah', 'benci', 'melebihi', 'talakperceraian']</t>
+          <t>['rt', 'sekiranya', 'semua', 'perbuatan', 'ini', 'suatu', 'ketika', 'mnjdi', 'kesempurnaan', 'bg', 'pelakunya', 'niscaya', 'berakhlak', 'mulia', 'menjadi', 'lebh', 'indah', 'dn', 'lebh']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'sekiranya', 'semua', 'perbuatan', 'ini', 'suatu', 'ketika', 'menjadi', 'kesempurnaan', 'bagi', 'pelakunya', 'niscaya', 'berakhlak', 'mulia', 'menjadi', 'lebih', 'indah', 'dan', 'lebih']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['atberkah', 'rasulullah', 'tiada', 'perbuatan', 'halal', 'allah', 'benci', 'melebihi', 'talakperceraian']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['atberkah', 'rasulullah', 'tiada', 'buat', 'halal', 'allah', 'benci', 'lebih', 'talakperceraian']</t>
+          <t>['perbuatan', 'kesempurnaan', 'pelakunya', 'niscaya', 'berakhlak', 'mulia', 'indah']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['buat', 'sempurna', 'laku', 'niscaya', 'akhlak', 'mulia', 'indah']</t>
         </is>
       </c>
     </row>
@@ -2163,30 +2395,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>17391</v>
+        <v>28160</v>
       </c>
       <c r="C49" t="n">
-        <v>215</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>331</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ini surat saya untuk presiden terkait lesunya industri buku nasional</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ini', 'surat', 'saya', 'untuk', 'presiden', 'terkait', 'lesunya', 'industri', 'buku', 'nasional']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['ini', 'surat', 'saya', 'untuk', 'presiden', 'terkait', 'lesunya', 'industri', 'buku', 'nasional']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['surat', 'presiden', 'terkait', 'lesunya', 'industri', 'buku', 'nasional']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['surat', 'presiden', 'kait', 'lesu', 'industri', 'buku', 'nasional']</t>
         </is>
       </c>
     </row>
@@ -2195,34 +2436,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17392</v>
+        <v>28161</v>
       </c>
       <c r="C50" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>imam ali paling mulianya kemuliaan adalah ilmu karena dngnya kehidupan yg akan datang dan yang skrng bisa diketah</t>
+          <t>rt kimberly please join the twitterstorm for hassan almaliki this saturday february from gmt he is  priso</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['imam', 'ali', 'paling', 'mulianya', 'kemuliaan', 'adalah', 'ilmu', 'karena', 'dngnya', 'kehidupan', 'yg', 'akan', 'datang', 'dan', 'yang', 'skrng', 'bisa', 'diketah']</t>
+          <t>['rt', 'kimberly', 'please', 'join', 'the', 'twitterstorm', 'for', 'hassan', 'almaliki', 'this', 'saturday', 'february', 'from', 'gmt', 'he', 'is', 'priso']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'kimberly', 'please', 'join', 'the', 'twitterstorm', 'for', 'hasan', 'almaliki', 'this', 'saturday', 'february', 'from', 'gmt', 'he', 'is', 'priso']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['imam', 'ali', 'mulianya', 'kemuliaan', 'ilmu', 'dngnya', 'kehidupan', 'skrng', 'diketah']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['imam', 'ali', 'mulia', 'mulia', 'ilmu', 'dngnya', 'hidup', 'skrng', 'diketah']</t>
+          <t>['kimberly', 'please', 'join', 'the', 'twitterstorm', 'for', 'hasan', 'almaliki', 'this', 'saturday', 'february', 'from', 'gmt', 'he', 'is', 'priso']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['kimberly', 'please', 'join', 'the', 'twitterstorm', 'for', 'hasan', 'almalik', 'this', 'saturday', 'february', 'from', 'gmt', 'he', 'is', 'priso']</t>
         </is>
       </c>
     </row>
@@ -2231,34 +2477,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>17393</v>
+        <v>28162</v>
       </c>
       <c r="C51" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>silahkan mengikuti diskusi terkait pertanyaan benarkah hanya orang kaya yang bisa berbuat baik semoga bermanfaa</t>
+          <t>as</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['silahkan', 'mengikuti', 'diskusi', 'terkait', 'pertanyaan', 'benarkah', 'hanya', 'orang', 'kaya', 'yang', 'bisa', 'berbuat', 'baik', 'semoga', 'bermanfaa']</t>
+          <t>['as']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['as']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['silahkan', 'mengikuti', 'diskusi', 'terkait', 'orang', 'kaya', 'berbuat', 'semoga', 'bermanfaa']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['silah', 'ikut', 'diskusi', 'kait', 'orang', 'kaya', 'buat', 'moga', 'bermanfaa']</t>
+          <t>['as']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['as']</t>
         </is>
       </c>
     </row>
@@ -2267,34 +2518,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>17394</v>
+        <v>28163</v>
       </c>
       <c r="C52" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>jangan lupa kalo berminat beli lewat link yg tertera di dalam website biar ada komisi</t>
+          <t>ya di icc</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['jangan', 'lupa', 'kalo', 'berminat', 'beli', 'lewat', 'link', 'yg', 'tertera', 'di', 'dalam', 'website', 'biar', 'ada', 'komisi']</t>
+          <t>['ya', 'di', 'icc']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['ya', 'di', 'icc']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['lupa', 'berminat', 'beli', 'link', 'tertera', 'website', 'komisi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['lupa', 'minat', 'beli', 'link', 'tera', 'website', 'komisi']</t>
+          <t>['icc']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['icc']</t>
         </is>
       </c>
     </row>
@@ -2303,34 +2559,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>17395</v>
+        <v>28164</v>
       </c>
       <c r="C53" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>bisa juga diartikan sepanjang hidupnya</t>
+          <t>proses evakuasi ribuan buku yg terkena banjir</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['bisa', 'juga', 'diartikan', 'sepanjang', 'hidupnya']</t>
+          <t>['proses', 'evakuasi', 'ribuan', 'buku', 'yg', 'terkena', 'banjir']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['proses', 'evakuasi', 'ribuan', 'buku', 'yang', 'terkena', 'banjir']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['diartikan', 'hidupnya']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['arti', 'hidup']</t>
+          <t>['proses', 'evakuasi', 'ribuan', 'buku', 'terkena', 'banjir']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['proses', 'evakuasi', 'ribu', 'buku', 'kena', 'banjir']</t>
         </is>
       </c>
     </row>
@@ -2339,34 +2600,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>17396</v>
+        <v>28165</v>
       </c>
       <c r="C54" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rasulullah orang yg menunaikan hajat saudaranya ganjarannya seperti orang yg menyembah allah sepan</t>
+          <t>barusan ada majlis duka untuk almarhum kang jalal di makam imam ali alridha di masyhad khurasan</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rasulullah', 'orang', 'yg', 'menunaikan', 'hajat', 'saudaranya', 'ganjarannya', 'seperti', 'orang', 'yg', 'menyembah', 'allah', 'sepan']</t>
+          <t>['barusan', 'ada', 'majlis', 'duka', 'untuk', 'almarhum', 'kang', 'jalal', 'di', 'makam', 'imam', 'ali', 'alridha', 'di', 'masyhad', 'khurasan']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>['barusan', 'ada', 'majlis', 'duka', 'untuk', 'almarhum', 'kang', 'jalal', 'di', 'makam', 'imam', 'ali', 'alridha', 'di', 'masyhad', 'khurasan']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['rasulullah', 'orang', 'menunaikan', 'hajat', 'saudaranya', 'ganjarannya', 'orang', 'menyembah', 'allah', 'sepan']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['rasulullah', 'orang', 'tunai', 'hajat', 'saudara', 'ganjar', 'orang', 'sembah', 'allah', 'sepan']</t>
+          <t>['barusan', 'majlis', 'duka', 'almarhum', 'kang', 'jalal', 'makam', 'imam', 'ali', 'alridha', 'masyhad', 'khurasan']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['barusan', 'majlis', 'duka', 'almarhum', 'kang', 'jalal', 'makam', 'imam', 'ali', 'alridha', 'masyhad', 'khurasan']</t>
         </is>
       </c>
     </row>
@@ -2375,34 +2641,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>17397</v>
+        <v>28166</v>
       </c>
       <c r="C55" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt yang belom nikah bisa mempersiapkan diri yang sudah nikah bisa memperbarui pandangannya ttg pernikahan terimakasih penc</t>
+          <t>terima kasih atas semua simpati teman liat buku hancur hati ini jelas ikut hancur</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'yang', 'belom', 'nikah', 'bisa', 'mempersiapkan', 'diri', 'yang', 'sudah', 'nikah', 'bisa', 'memperbarui', 'pandangannya', 'ttg', 'pernikahan', 'terimakasih', 'penc']</t>
+          <t>['terima', 'kasih', 'atas', 'semua', 'simpati', 'teman', 'liat', 'buku', 'hancur', 'hati', 'ini', 'jelas', 'ikut', 'hancur']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'atas', 'semua', 'simpati', 'teman', 'lihat', 'buku', 'hancur', 'hati', 'ini', 'jelas', 'ikut', 'hancur']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['belom', 'nikah', 'nikah', 'memperbarui', 'pandangannya', 'ttg', 'pernikahan', 'terimakasih', 'penc']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['bom', 'nikah', 'nikah', 'baru', 'pandang', 'ttg', 'nikah', 'terimakasih', 'penc']</t>
+          <t>['terima', 'kasih', 'simpati', 'teman', 'lihat', 'buku', 'hancur', 'hati', 'hancur']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'simpati', 'teman', 'lihat', 'buku', 'hancur', 'hati', 'hancur']</t>
         </is>
       </c>
     </row>
@@ -2411,34 +2682,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>17398</v>
+        <v>28167</v>
       </c>
       <c r="C56" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>silahkan mengikuti diskusj podcast indonesia ngapain buru buru nikah semoga bermanfaat</t>
+          <t>as ya bener mas sedih sekali</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['silahkan', 'mengikuti', 'diskusj', 'podcast', 'indonesia', 'ngapain', 'buru', 'buru', 'nikah', 'semoga', 'bermanfaat']</t>
+          <t>['as', 'ya', 'bener', 'mas', 'sedih', 'sekali']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['as', 'ya', 'benar', 'mas', 'sedih', 'sekali']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['silahkan', 'mengikuti', 'diskusj', 'podcast', 'indonesia', 'ngapain', 'buru', 'buru', 'nikah', 'semoga', 'bermanfaat']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['silah', 'ikut', 'diskusj', 'podcast', 'indonesia', 'ngapain', 'buru', 'buru', 'nikah', 'moga', 'manfaat']</t>
+          <t>['as', 'mas', 'sedih']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['as', 'mas', 'sedih']</t>
         </is>
       </c>
     </row>
@@ -2447,34 +2723,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>17399</v>
+        <v>28168</v>
       </c>
       <c r="C57" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt bagir ini bom terakhir syaikh ali jaber berupa setengah menit ceramah beliau yg pernah saya twit bln september lalu waktu </t>
+          <t>ribuan buku terkena banjir di icc jakarta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'bagir', 'ini', 'bom', 'terakhir', 'syaikh', 'ali', 'jaber', 'berupa', 'setengah', 'menit', 'ceramah', 'beliau', 'yg', 'pernah', 'saya', 'twit', 'bln', 'september', 'lalu', 'waktu']</t>
+          <t>['ribuan', 'buku', 'terkena', 'banjir', 'di', 'icc', 'jakarta']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['ribuan', 'buku', 'terkena', 'banjir', 'di', 'icc', 'jakarta']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['bagir', 'bom', 'syaikh', 'ali', 'jaber', 'menit', 'ceramah', 'beliau', 'twit', 'bln', 'september']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['bagir', 'bom', 'syaikh', 'ali', 'jaber', 'menit', 'ceramah', 'beliau', 'twit', 'bln', 'september']</t>
+          <t>['ribuan', 'buku', 'terkena', 'banjir', 'icc', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['ribu', 'buku', 'kena', 'banjir', 'icc', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -2483,34 +2764,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>17400</v>
+        <v>28169</v>
       </c>
       <c r="C58" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>kalo merugikan publik tentu tidak termasuk tradisi baik dalam teks itu sdh disebutkan</t>
+          <t>pejabat yg buruk adalah pejabat yg tidak bisa menerima dan mengakui kekurangan banjir hari ini yg disalahkan guber</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['kalo', 'merugikan', 'publik', 'tentu', 'tidak', 'termasuk', 'tradisi', 'baik', 'dalam', 'teks', 'itu', 'sdh', 'disebutkan']</t>
+          <t>['pejabat', 'yg', 'buruk', 'adalah', 'pejabat', 'yg', 'tidak', 'bisa', 'menerima', 'dan', 'mengakui', 'kekurangan', 'banjir', 'hari', 'ini', 'yg', 'disalahkan', 'guber']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['pejabat', 'yang', 'buruk', 'adalah', 'pejabat', 'yang', 'tidak', 'bisa', 'menerima', 'dan', 'mengakui', 'kekurangan', 'banjir', 'hari', 'ini', 'yang', 'disalahkan', 'guber']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['merugikan', 'publik', 'tradisi', 'teks']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['rugi', 'publik', 'tradisi', 'teks']</t>
+          <t>['pejabat', 'buruk', 'pejabat', 'menerima', 'mengakui', 'kekurangan', 'banjir', 'disalahkan', 'guber']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['jabat', 'buruk', 'jabat', 'terima', 'aku', 'kurang', 'banjir', 'salah', 'guber']</t>
         </is>
       </c>
     </row>
@@ -2519,34 +2805,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>17401</v>
+        <v>28170</v>
       </c>
       <c r="C59" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>perintah imam ali pd malik asytar gubernur mesir yg dia angkat untuk tidak menghapus tradisi baik yg sdh berlaku</t>
+          <t>bencana untuk ilmu agama</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['perintah', 'imam', 'ali', 'pd', 'malik', 'asytar', 'gubernur', 'mesir', 'yg', 'dia', 'angkat', 'untuk', 'tidak', 'menghapus', 'tradisi', 'baik', 'yg', 'sdh', 'berlaku']</t>
+          <t>['bencana', 'untuk', 'ilmu', 'agama']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['bencana', 'untuk', 'ilmu', 'agama']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['perintah', 'imam', 'ali', 'pd', 'malik', 'asytar', 'gubernur', 'mesir', 'angkat', 'menghapus', 'tradisi', 'berlaku']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['perintah', 'imam', 'ali', 'pd', 'malik', 'asytar', 'gubernur', 'mesir', 'angkat', 'hapus', 'tradisi', 'laku']</t>
+          <t>['bencana', 'ilmu', 'agama']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['bencana', 'ilmu', 'agama']</t>
         </is>
       </c>
     </row>
@@ -2555,34 +2846,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>17402</v>
+        <v>28171</v>
       </c>
       <c r="C60" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>asyik</t>
+          <t>rasulullah kerakusan menghilangkan kebijaksanaan dari kalbu para ulama</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['asyik']</t>
+          <t>['rasulullah', 'kerakusan', 'menghilangkan', 'kebijaksanaan', 'dari', 'kalbu', 'para', 'ulama']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rasulullah', 'kerakusan', 'menghilangkan', 'kebijaksanaan', 'dari', 'kalbu', 'para', 'ulama']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['asyik']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['asyik']</t>
+          <t>['rasulullah', 'kerakusan', 'menghilangkan', 'kebijaksanaan', 'kalbu', 'ulama']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['rasulullah', 'rakus', 'hilang', 'bijaksana', 'kalbu', 'ulama']</t>
         </is>
       </c>
     </row>
@@ -2591,34 +2887,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>17403</v>
+        <v>28172</v>
       </c>
       <c r="C61" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>imam ali ketakjuban seseorang pada dirinya menandakan kelemahan akalnya</t>
+          <t>ucapan takziah ustad atas wafatnya almarhum ayahanda jalaluddin rahmat dan almarhumah ibunda tercint</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['imam', 'ali', 'ketakjuban', 'seseorang', 'pada', 'dirinya', 'menandakan', 'kelemahan', 'akalnya']</t>
+          <t>['ucapan', 'takziah', 'ustad', 'atas', 'wafatnya', 'almarhum', 'ayahanda', 'jalaluddin', 'rahmat', 'dan', 'almarhumah', 'ibunda', 'tercint']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['ucapan', 'takziah', 'ustad', 'atas', 'wafatnya', 'almarhum', 'ayahanda', 'jalaluddin', 'rahmat', 'dan', 'almarhumah', 'ibunda', 'tercint']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['imam', 'ali', 'ketakjuban', 'menandakan', 'kelemahan', 'akalnya']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['imam', 'ali', 'takjub', 'tanda', 'lemah', 'akal']</t>
+          <t>['ucapan', 'takziah', 'ustad', 'wafatnya', 'almarhum', 'ayahanda', 'jalaluddin', 'rahmat', 'almarhumah', 'ibunda', 'tercint']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['ucap', 'takziah', 'ustad', 'wafat', 'almarhum', 'ayahanda', 'jalaluddin', 'rahmat', 'almarhumah', 'ibunda', 'tercint']</t>
         </is>
       </c>
     </row>
@@ -2627,34 +2928,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>17404</v>
+        <v>28173</v>
       </c>
       <c r="C62" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt bryan fogel omar abdulaziz and hatice cengiz join the post to discuss the dissident  new documentary about the mur</t>
+          <t>rt lahul faatehah maa shalawat mari bersama kita menyimak ustad musa kazhim alhabsyi bagaimana kenangannya ttg almarhum</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'bryan', 'fogel', 'omar', 'abdulaziz', 'and', 'hatice', 'cengiz', 'join', 'the', 'post', 'to', 'discuss', 'the', 'dissident', 'new', 'documentary', 'about', 'the', 'mur']</t>
+          <t>['rt', 'lahul', 'faatehah', 'maa', 'shalawat', 'mari', 'bersama', 'kita', 'menyimak', 'ustad', 'musa', 'kazhim', 'alhabsyi', 'bagaimana', 'kenangannya', 'ttg', 'almarhum']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'lahul', 'faatehah', 'mak', 'selawat', 'mari', 'bersama', 'kita', 'menyimak', 'ustad', 'musa', 'kazhim', 'alhabsyi', 'bagaimana', 'kenangannya', 'tentang', 'almarhum']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['bryan', 'fogel', 'omar', 'abdulaziz', 'and', 'hatice', 'cengiz', 'join', 'the', 'post', 'to', 'discuss', 'the', 'dissident', 'new', 'documentary', 'about', 'the', 'mur']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['bryan', 'fogel', 'omar', 'abdulaziz', 'and', 'hatice', 'cengiz', 'join', 'the', 'post', 'to', 'discuss', 'the', 'dissident', 'new', 'documentary', 'about', 'the', 'mur']</t>
+          <t>['lahul', 'faatehah', 'mak', 'selawat', 'mari', 'menyimak', 'ustad', 'musa', 'kazhim', 'alhabsyi', 'kenangannya', 'almarhum']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['lahul', 'faatehah', 'mak', 'selawat', 'mari', 'simak', 'ustad', 'musa', 'kazhim', 'alhabsyi', 'kenang', 'almarhum']</t>
         </is>
       </c>
     </row>
@@ -2663,34 +2969,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>17405</v>
+        <v>28174</v>
       </c>
       <c r="C63" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>turut berduka atas wafatnya syekh ali jaber yang telah banyak mengajarkan islam yang ramah dan toleran di indonesia</t>
+          <t>dengan kerendahan hati yg tulus saya ingin mengenang guru tercinta almarhum wal maghfur kh jalaluddin rahmat</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['turut', 'berduka', 'atas', 'wafatnya', 'syekh', 'ali', 'jaber', 'yang', 'telah', 'banyak', 'mengajarkan', 'islam', 'yang', 'ramah', 'dan', 'toleran', 'di', 'indonesia']</t>
+          <t>['dengan', 'kerendahan', 'hati', 'yg', 'tulus', 'saya', 'ingin', 'mengenang', 'guru', 'tercinta', 'almarhum', 'wal', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['dengan', 'kerendahan', 'hati', 'yang', 'tulus', 'saya', 'ingin', 'mengenang', 'guru', 'tercinta', 'almarhum', 'wah', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['berduka', 'wafatnya', 'syekh', 'ali', 'jaber', 'mengajarkan', 'islam', 'ramah', 'toleran', 'indonesia']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['duka', 'wafat', 'syekh', 'ali', 'jaber', 'ajar', 'islam', 'ramah', 'toleran', 'indonesia']</t>
+          <t>['kerendahan', 'hati', 'tulus', 'mengenang', 'guru', 'tercinta', 'almarhum', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['rendah', 'hati', 'tulus', 'kenang', 'guru', 'cinta', 'almarhum', 'maghfur', 'kh', 'jalaluddin', 'rahmat']</t>
         </is>
       </c>
     </row>
@@ -2699,34 +3010,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>17406</v>
+        <v>28175</v>
       </c>
       <c r="C64" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt historia earliest extant copy of alsahifah alsajjadiyyah work of devotional piety attributed to the fourth shii imam zayn</t>
+          <t>hqq siap beb</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'historia', 'earliest', 'extant', 'copy', 'of', 'alsahifah', 'alsajjadiyyah', 'work', 'of', 'devotional', 'piety', 'attributed', 'to', 'the', 'fourth', 'shii', 'imam', 'zayn']</t>
+          <t>['hqq', 'siap', 'beb']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['hakiki', 'siap', 'sayang']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['historia', 'earliest', 'extant', 'copy', 'of', 'alsahifah', 'alsajjadiyyah', 'work', 'of', 'devotional', 'piety', 'attributed', 'to', 'the', 'fourth', 'shii', 'imam', 'zayn']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['historia', 'earliest', 'extant', 'copy', 'of', 'alsahifah', 'alsajjadiyyah', 'work', 'of', 'devotional', 'piety', 'attributed', 'to', 'the', 'fourth', 'shii', 'imam', 'zayn']</t>
+          <t>['hakiki', 'sayang']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['hakiki', 'sayang']</t>
         </is>
       </c>
     </row>
@@ -2735,34 +3051,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>17407</v>
+        <v>28176</v>
       </c>
       <c r="C65" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rt mengenal lebih jauh sosok abdul muthalib dokter yang menyuntikkan vaksin kepada jokowi http</t>
+          <t>imam jafar shadiq dalam alwasail bab amar maruf nahi munkar hadis terakhir sikap keras ekstrem dalam beraga</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['rt', 'mengenal', 'lebih', 'jauh', 'sosok', 'abdul', 'muthalib', 'dokter', 'yang', 'menyuntikkan', 'vaksin', 'kepada', 'jokowi', 'http']</t>
+          <t>['imam', 'jafar', 'shadiq', 'dalam', 'alwasail', 'bab', 'amar', 'maruf', 'nahi', 'munkar', 'hadis', 'terakhir', 'sikap', 'keras', 'ekstrem', 'dalam', 'beraga']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['imam', 'jafar', 'shadiq', 'dalam', 'alwasail', 'bab', 'amar', 'maruf', 'nahi', 'munkar', 'hadis', 'terakhir', 'sikap', 'keras', 'ekstrem', 'dalam', 'beraga']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['mengenal', 'sosok', 'abdul', 'muthalib', 'dokter', 'menyuntikkan', 'vaksin', 'jokowi', 'http']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['kenal', 'sosok', 'abdul', 'muthalib', 'dokter', 'suntik', 'vaksin', 'jokowi', 'http']</t>
+          <t>['imam', 'jafar', 'shadiq', 'alwasail', 'bab', 'amar', 'maruf', 'nahi', 'munkar', 'hadis', 'sikap', 'keras', 'ekstrem', 'beraga']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['imam', 'jafar', 'shadiq', 'alwasail', 'bab', 'amar', 'maruf', 'nahi', 'munkar', 'hadis', 'sikap', 'keras', 'ekstrem', 'aga']</t>
         </is>
       </c>
     </row>
@@ -2771,34 +3092,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>17408</v>
+        <v>28177</v>
       </c>
       <c r="C66" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt jokowi jadi orang pertama di indonesia yang disuntik vaksin dokter yg memberi suntikan vaksin pertama itu tak lain me</t>
+          <t>syukron beb</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt', 'jokowi', 'jadi', 'orang', 'pertama', 'di', 'indonesia', 'yang', 'disuntik', 'vaksin', 'dokter', 'yg', 'memberi', 'suntikan', 'vaksin', 'pertama', 'itu', 'tak', 'lain', 'me']</t>
+          <t>['syukron', 'beb']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['syukron', 'sayang']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['jokowi', 'orang', 'indonesia', 'disuntik', 'vaksin', 'dokter', 'suntikan', 'vaksin', 'me']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['jokowi', 'orang', 'indonesia', 'suntik', 'vaksin', 'dokter', 'sunti', 'vaksin', 'me']</t>
+          <t>['syukron', 'sayang']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['syukron', 'sayang']</t>
         </is>
       </c>
     </row>
@@ -2807,34 +3133,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>17409</v>
+        <v>28178</v>
       </c>
       <c r="C67" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>siap</t>
+          <t>dirs terima kasih untuk abangku gus nadir yg terus tanpa lelah mengajarkan islam yang ramah dan toleran semoga</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['siap']</t>
+          <t>['dirs', 'terima', 'kasih', 'untuk', 'abangku', 'gus', 'nadir', 'yg', 'terus', 'tanpa', 'lelah', 'mengajarkan', 'islam', 'yang', 'ramah', 'dan', 'toleran', 'semoga']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['dirs', 'terima', 'kasih', 'untuk', 'abangku', 'gus', 'nadir', 'yang', 'terus', 'tanpa', 'lelah', 'mengajarkan', 'islam', 'yang', 'ramah', 'dan', 'toleran', 'semoga']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['dirs', 'terima', 'kasih', 'abangku', 'gus', 'nadir', 'lelah', 'mengajarkan', 'islam', 'ramah', 'toleran', 'semoga']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['dirs', 'terima', 'kasih', 'abang', 'gus', 'nadir', 'lelah', 'ajar', 'islam', 'ramah', 'toleran', 'moga']</t>
         </is>
       </c>
     </row>
@@ -2843,34 +3174,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>17410</v>
+        <v>28179</v>
       </c>
       <c r="C68" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>terima kasih beb</t>
+          <t>rt dirs ustad maaher meninggal tak ada cacimaki malah mendoakan beliau kang jalal meninggal banyak yg tega mencaci yahudi meni</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'beb']</t>
+          <t>['rt', 'dirs', 'ustad', 'maaher', 'meninggal', 'tak', 'ada', 'cacimaki', 'malah', 'mendoakan', 'beliau', 'kang', 'jalal', 'meninggal', 'banyak', 'yg', 'tega', 'mencaci', 'yahudi', 'meni']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'dirs', 'ustad', 'maaher', 'meninggal', 'tak', 'ada', 'caci, maki', 'malah', 'mendoakan', 'beliau', 'kang', 'jalal', 'meninggal', 'banyak', 'yang', 'tega', 'mencaci', 'yahudi', 'meni']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'beb']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'beb']</t>
+          <t>['dirs', 'ustad', 'maaher', 'meninggal', 'caci, maki', 'mendoakan', 'beliau', 'kang', 'jalal', 'meninggal', 'tega', 'mencaci', 'yahudi', 'meni']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['dirs', 'ustad', 'maaher', 'tinggal', 'caci maki', 'doa', 'beliau', 'kang', 'jalal', 'tinggal', 'tega', 'caci', 'yahudi', 'meni']</t>
         </is>
       </c>
     </row>
@@ -2879,34 +3215,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17411</v>
+        <v>28180</v>
       </c>
       <c r="C69" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>silahkan yg mau gabung semoga berguna</t>
+          <t>silahkan yg ingin bergabung dalam webinar tentang murtadha muthahhari bsk semoga bermanfaat</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['silahkan', 'yg', 'mau', 'gabung', 'semoga', 'berguna']</t>
+          <t>['silahkan', 'yg', 'ingin', 'bergabung', 'dalam', 'webinar', 'tentang', 'murtadha', 'muthahhari', 'bsk', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['silakan', 'yang', 'ingin', 'bergabung', 'dalam', 'webinar', 'tentang', 'murtadha', 'muthahhari', 'besok', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['silahkan', 'gabung', 'semoga', 'berguna']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['silah', 'gabung', 'moga', 'guna']</t>
+          <t>['silakan', 'bergabung', 'webinar', 'murtadha', 'muthahhari', 'besok', 'semoga', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['sila', 'gabung', 'webinar', 'murtadha', 'muthahhari', 'besok', 'moga', 'manfaat']</t>
         </is>
       </c>
     </row>
@@ -2915,34 +3256,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17412</v>
+        <v>28181</v>
       </c>
       <c r="C70" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>tafakur alam alami tafakur</t>
+          <t>siap insyallah</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['tafakur', 'alam', 'alami', 'tafakur']</t>
+          <t>['siap', 'insyallah']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+          <t>['siap', 'insyaallah']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['tafakur', 'alam', 'alami', 'tafakur']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['tafakur', 'alam', 'alami', 'tafakur']</t>
+          <t>['insyaallah']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['insyaallah']</t>
         </is>
       </c>
     </row>
@@ -2951,30 +3297,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17413</v>
+        <v>28182</v>
       </c>
       <c r="C71" t="n">
-        <v>215</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+        <v>331</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>saya sudah tidak ingat kapan persisnya tapi saya masih ingat detil kejadiannya di akhir sebelum genap berus</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['saya', 'sudah', 'tidak', 'ingat', 'kapan', 'persisnya', 'tapi', 'saya', 'masih', 'ingat', 'detil', 'kejadiannya', 'di', 'akhir', 'sebelum', 'genap', 'berus']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['saya', 'sudah', 'tidak', 'ingat', 'kapan', 'persisnya', 'tapi', 'saya', 'masih', 'ingat', 'detil', 'kejadiannya', 'di', 'akhir', 'sebelum', 'genap', 'berus']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['persisnya', 'detil', 'kejadiannya', 'genap', 'berus']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['persis', 'detil', 'jadi', 'genap', 'berus']</t>
         </is>
       </c>
     </row>
@@ -2983,34 +3338,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>17414</v>
+        <v>28183</v>
       </c>
       <c r="C72" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>iya insyallah bisa</t>
+          <t>rt mungkin di belakang hari memilih jalur pemikiran yang berbeda dari arus utama cendekiawan muslim indonesia tetapi hal it</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['iya', 'insyallah', 'bisa']</t>
+          <t>['rt', 'mungkin', 'di', 'belakang', 'hari', 'memilih', 'jalur', 'pemikiran', 'yang', 'berbeda', 'dari', 'arus', 'utama', 'cendekiawan', 'muslim', 'indonesia', 'tetapi', 'hal', 'it']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'mungkin', 'di', 'belakang', 'hari', 'memilih', 'jalur', 'pemikiran', 'yang', 'berbeda', 'dari', 'arus', 'utama', 'cendekiawan', 'muslim', 'indonesia', 'tetapi', 'hal', 'it']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['iya', 'insyallah']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['iya', 'insyallah']</t>
+          <t>['memilih', 'jalur', 'pemikiran', 'berbeda', 'arus', 'utama', 'cendekiawan', 'muslim', 'indonesia', 'it']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['pilih', 'jalur', 'pikir', 'beda', 'arus', 'utama', 'cendekiawan', 'muslim', 'indonesia', 'it']</t>
         </is>
       </c>
     </row>
@@ -3019,34 +3379,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>17415</v>
+        <v>28184</v>
       </c>
       <c r="C73" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>silahkan yg mau ikut semoga bermanfaat</t>
+          <t>rt bagir kang jalaluddin rakhmat bukan cuma seseorg yg cerdas amp meluas ilmunya melainkan juga pencinta amp penolong dhuafa serta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['silahkan', 'yg', 'mau', 'ikut', 'semoga', 'bermanfaat']</t>
+          <t>['rt', 'bagir', 'kang', 'jalaluddin', 'rakhmat', 'bukan', 'cuma', 'seseorg', 'yg', 'cerdas', 'amp', 'meluas', 'ilmunya', 'melainkan', 'juga', 'pencinta', 'amp', 'penolong', 'dhuafa', 'serta']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'bagir', 'kang', 'jalaluddin', 'rakhmat', 'bukan', 'cuma', 'seseorang', 'yang', 'cerdas', 'amp', 'meluas', 'ilmunya', 'melainkan', 'juga', 'pencinta', 'amp', 'penolong', 'dhuafa', 'serta']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['silahkan', 'semoga', 'bermanfaat']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['silah', 'moga', 'manfaat']</t>
+          <t>['bagir', 'kang', 'jalaluddin', 'rakhmat', 'cerdas', 'meluas', 'ilmunya', 'pencinta', 'penolong', 'dhuafa']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['bagir', 'kang', 'jalaluddin', 'rakhmat', 'cerdas', 'luas', 'ilmu', 'cinta', 'tolong', 'dhuafa']</t>
         </is>
       </c>
     </row>
@@ -3055,34 +3420,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>17416</v>
+        <v>28185</v>
       </c>
       <c r="C74" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>terima kasih semoga bermanfaat</t>
+          <t xml:space="preserve">rt semoga allah membalas jasa intelektual kang jalal yg besar ini saya amat bersedih dengan perginya salah satu best mind di </t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'semoga', 'bermanfaat']</t>
+          <t>['rt', 'semoga', 'allah', 'membalas', 'jasa', 'intelektual', 'kang', 'jalal', 'yg', 'besar', 'ini', 'saya', 'amat', 'bersedih', 'dengan', 'perginya', 'salah', 'satu', 'best', 'mind', 'di']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'semoga', 'allah', 'membalas', 'jasa', 'intelektual', 'kang', 'jalal', 'yang', 'besar', 'ini', 'saya', 'amat', 'bersedih', 'dengan', 'perginya', 'salah', 'satu', 'best', 'mind', 'di']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'semoga', 'bermanfaat']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'moga', 'manfaat']</t>
+          <t>['semoga', 'allah', 'membalas', 'jasa', 'intelektual', 'kang', 'jalal', 'bersedih', 'perginya', 'salah', 'best', 'mind']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['moga', 'allah', 'balas', 'jasa', 'intelektual', 'kang', 'jalal', 'sedih', 'pergi', 'salah', 'best', 'mind']</t>
         </is>
       </c>
     </row>
@@ -3091,34 +3461,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>17417</v>
+        <v>28186</v>
       </c>
       <c r="C75" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>stop press setelah fpi kapan giliran annas</t>
+          <t>rt bagi saya era an yakni era ketika kang jalal mulai muncul sebagai magnet intelektual baru di bandung adalah era keemasan pe</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['stop', 'press', 'setelah', 'fpi', 'kapan', 'giliran', 'annas']</t>
+          <t>['rt', 'bagi', 'saya', 'era', 'an', 'yakni', 'era', 'ketika', 'kang', 'jalal', 'mulai', 'muncul', 'sebagai', 'magnet', 'intelektual', 'baru', 'di', 'bandung', 'adalah', 'era', 'keemasan', 'pe']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'bagi', 'saya', 'era', 'an', 'yakni', 'era', 'ketika', 'kang', 'jalal', 'mulai', 'muncul', 'sebagai', 'magnet', 'intelektual', 'baru', 'di', 'bandung', 'adalah', 'era', 'keemasan', 'pe']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['stop', 'press', 'fpi', 'giliran', 'annas']</t>
+          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['stop', 'press', 'fpi', 'gilir', 'annas']</t>
+          <t>['era', 'an', 'era', 'kang', 'jalal', 'muncul', 'magnet', 'intelektual', 'bandung', 'era', 'keemasan', 'pe']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['era', 'an', 'era', 'kang', 'jalal', 'muncul', 'magnet', 'intelektual', 'bandung', 'era', 'emas', 'pe']</t>
         </is>
       </c>
     </row>
@@ -3127,34 +3502,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>17418</v>
+        <v>28187</v>
       </c>
       <c r="C76" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt coproduce corona vaccine</t>
+          <t>rt laksono hatur nuhun kang dekan semoga sehat juga</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'coproduce', 'corona', 'vaccine']</t>
+          <t>['rt', 'laksono', 'hatur', 'nuhun', 'kang', 'dekan', 'semoga', 'sehat', 'juga']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'laksono', 'hatur', 'terima, kasih', 'kang', 'dekan', 'semoga', 'sehat', 'juga']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['coproduce', 'corona', 'vaccine']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['coproduce', 'corona', 'vaccine']</t>
+          <t>['laksono', 'hatur', 'terima, kasih', 'kang', 'dekan', 'semoga', 'sehat']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['laksono', 'hatur', 'terima kasih', 'kang', 'dekan', 'moga', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -3163,34 +3543,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>17419</v>
+        <v>28188</v>
       </c>
       <c r="C77" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>turut berduka atas wafatnya ayatullah syaikh misbah yazdi pemikir islam ternama sekaligus filsuf muslim kontempore</t>
+          <t>semoga allah melimpahkan rahmat dan maghfirah buat almarhum guru kita ini</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['turut', 'berduka', 'atas', 'wafatnya', 'ayatullah', 'syaikh', 'misbah', 'yazdi', 'pemikir', 'islam', 'ternama', 'sekaligus', 'filsuf', 'muslim', 'kontempore']</t>
+          <t>['semoga', 'allah', 'melimpahkan', 'rahmat', 'dan', 'maghfirah', 'buat', 'almarhum', 'guru', 'kita', 'ini']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['semoga', 'allah', 'melimpahkan', 'rahmat', 'dan', 'maghfirah', 'buat', 'almarhum', 'guru', 'kita', 'ini']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['berduka', 'wafatnya', 'ayatullah', 'syaikh', 'misbah', 'yazdi', 'pemikir', 'islam', 'ternama', 'filsuf', 'muslim', 'kontempore']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['duka', 'wafat', 'ayatullah', 'syaikh', 'misbah', 'yazdi', 'pikir', 'islam', 'nama', 'filsuf', 'muslim', 'kontempore']</t>
+          <t>['semoga', 'allah', 'melimpahkan', 'rahmat', 'maghfirah', 'almarhum', 'guru']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['moga', 'allah', 'limpah', 'rahmat', 'maghfirah', 'almarhum', 'guru']</t>
         </is>
       </c>
     </row>
@@ -3199,34 +3584,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>17420</v>
+        <v>28189</v>
       </c>
       <c r="C78" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>turut berduka atas meninggalnya habib jafar alkaff alfatehah</t>
+          <t>kami turut berduka cita yg mendalam atas meninggalnya salah satu cendikiawan muslim terbaik indonesia bapak jalalu</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['turut', 'berduka', 'atas', 'meninggalnya', 'habib', 'jafar', 'alkaff', 'alfatehah']</t>
+          <t>['kami', 'turut', 'berduka', 'cita', 'yg', 'mendalam', 'atas', 'meninggalnya', 'salah', 'satu', 'cendikiawan', 'muslim', 'terbaik', 'indonesia', 'bapak', 'jalalu']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kami', 'turut', 'berduka', 'cita', 'yang', 'mendalam', 'atas', 'meninggalnya', 'salah', 'satu', 'cendikiawan', 'muslim', 'terbaik', 'indonesia', 'bapak', 'jalalu']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['berduka', 'meninggalnya', 'habib', 'jafar', 'alkaff', 'alfatehah']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['duka', 'tinggal', 'habib', 'jafar', 'alkaff', 'alfatehah']</t>
+          <t>['berduka', 'cita', 'mendalam', 'meninggalnya', 'salah', 'cendikiawan', 'muslim', 'terbaik', 'indonesia', 'jalalu']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['duka', 'cita', 'dalam', 'tinggal', 'salah', 'cendikiawan', 'muslim', 'baik', 'indonesia', 'jalalu']</t>
         </is>
       </c>
     </row>
@@ -3235,34 +3625,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>17421</v>
+        <v>28190</v>
       </c>
       <c r="C79" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>menu masakan rumah pengiring hujan</t>
+          <t>silahkan ikuti diskusi seputar serangan atas yaman yg sdh berjalan hari labih semoga bermanfaat</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['menu', 'masakan', 'rumah', 'pengiring', 'hujan']</t>
+          <t>['silahkan', 'ikuti', 'diskusi', 'seputar', 'serangan', 'atas', 'yaman', 'yg', 'sdh', 'berjalan', 'hari', 'labih', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['silakan', 'ikuti', 'diskusi', 'seputar', 'serangan', 'atas', 'yaman', 'yang', 'sudah', 'berjalan', 'hari', 'lebih', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['menu', 'masakan', 'rumah', 'pengiring', 'hujan']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['menu', 'masakan', 'rumah', 'iring', 'hujan']</t>
+          <t>['silakan', 'ikuti', 'diskusi', 'seputar', 'serangan', 'yaman', 'berjalan', 'semoga', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['sila', 'ikut', 'diskusi', 'putar', 'serang', 'yaman', 'jalan', 'moga', 'manfaat']</t>
         </is>
       </c>
     </row>
@@ -3271,34 +3666,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>17422</v>
+        <v>28191</v>
       </c>
       <c r="C80" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rasulullah siapa yg menziarahi kubur orangtuanya di hari jumat maka allah akan mengampuninya dan mencatatnya se</t>
+          <t>atmubarakah rasulullah seburuk hamba adalah yg suka berlaku buruk dan bersikap kotor pada yg lain</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rasulullah', 'siapa', 'yg', 'menziarahi', 'kubur', 'orangtuanya', 'di', 'hari', 'jumat', 'maka', 'allah', 'akan', 'mengampuninya', 'dan', 'mencatatnya', 'se']</t>
+          <t>['atmubarakah', 'rasulullah', 'seburuk', 'hamba', 'adalah', 'yg', 'suka', 'berlaku', 'buruk', 'dan', 'bersikap', 'kotor', 'pada', 'yg', 'lain']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['atmubarakah', 'rasulullah', 'seburuk', 'hamba', 'adalah', 'yang', 'suka', 'berlaku', 'buruk', 'dan', 'bersikap', 'kotor', 'pada', 'yang', 'lain']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['rasulullah', 'menziarahi', 'kubur', 'orangtuanya', 'jumat', 'allah', 'mengampuninya', 'mencatatnya']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['rasulullah', 'ziarah', 'kubur', 'orangtuanya', 'jumat', 'allah', 'ampun', 'catat']</t>
+          <t>['atmubarakah', 'rasulullah', 'seburuk', 'hamba', 'suka', 'berlaku', 'buruk', 'bersikap', 'kotor']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['atmubarakah', 'rasulullah', 'buruk', 'hamba', 'suka', 'laku', 'buruk', 'sikap', 'kotor']</t>
         </is>
       </c>
     </row>
@@ -3307,34 +3707,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>17423</v>
+        <v>28192</v>
       </c>
       <c r="C81" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>rt abdillahtoha oposisi itu bukan melawan negara tapi mengeritik mengawasi dan menawarkan alternatif kalau sudah melawan negara nam</t>
+          <t>diskusi seputar putri tercinta rasul sayyidah fatimah azzahra yang beliau sebut dalam hadis shahih sebagai belahan</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['rt', 'abdillahtoha', 'oposisi', 'itu', 'bukan', 'melawan', 'negara', 'tapi', 'mengeritik', 'mengawasi', 'dan', 'menawarkan', 'alternatif', 'kalau', 'sudah', 'melawan', 'negara', 'nam']</t>
+          <t>['diskusi', 'seputar', 'putri', 'tercinta', 'rasul', 'sayyidah', 'fatimah', 'azzahra', 'yang', 'beliau', 'sebut', 'dalam', 'hadis', 'shahih', 'sebagai', 'belahan']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['diskusi', 'seputar', 'putri', 'tercinta', 'rasul', 'sayyidah', 'fatimah', 'azzahra', 'yang', 'beliau', 'sebut', 'dalam', 'hadis', 'sahih', 'sebagai', 'belahan']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['abdillahtoha', 'oposisi', 'melawan', 'negara', 'mengeritik', 'mengawasi', 'menawarkan', 'alternatif', 'melawan', 'negara', 'nam']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['abdillahtoha', 'oposisi', 'lawan', 'negara', 'keritik', 'awas', 'tawar', 'alternatif', 'lawan', 'negara', 'nam']</t>
+          <t>['diskusi', 'seputar', 'putri', 'tercinta', 'rasul', 'sayyidah', 'fatimah', 'azzahra', 'beliau', 'hadis', 'sahih', 'belahan']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['diskusi', 'putar', 'putri', 'cinta', 'rasul', 'sayyidah', 'fatimah', 'azzahra', 'beliau', 'hadis', 'sahih', 'bahan']</t>
         </is>
       </c>
     </row>
@@ -3343,34 +3748,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>17424</v>
+        <v>28193</v>
       </c>
       <c r="C82" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>siri dan alexa blm ya</t>
+          <t>innalillahi wa inna ilayhi rajiun turut berduka cita yg mendalam atas wafatnya ibu jalaluddin rahmat ibu dari us</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['siri', 'dan', 'alexa', 'blm', 'ya']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'turut', 'berduka', 'cita', 'yg', 'mendalam', 'atas', 'wafatnya', 'ibu', 'jalaluddin', 'rahmat', 'ibu', 'dari', 'us']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'turut', 'berduka', 'cita', 'yang', 'mendalam', 'atas', 'wafatnya', 'ibu', 'jalaluddin', 'rahmat', 'ibu', 'dari', 'us']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['siri', 'alexa', 'blm']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['siri', 'alexa', 'blm']</t>
+          <t>['innalillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'berduka', 'cita', 'mendalam', 'wafatnya', 'jalaluddin', 'rahmat', 'us']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wa', 'inna', 'ilayhi', 'rajiun', 'duka', 'cita', 'dalam', 'wafat', 'jalaluddin', 'rahmat', 'us']</t>
         </is>
       </c>
     </row>
@@ -3379,34 +3789,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>17425</v>
+        <v>28194</v>
       </c>
       <c r="C83" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>kalo politisi ngomong begini masih ok ok aja tapi kalo agamawan ngomong begini menurut saya dia berkhianat pada ag</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['kalo', 'politisi', 'ngomong', 'begini', 'masih', 'ok', 'ok', 'aja', 'tapi', 'kalo', 'agamawan', 'ngomong', 'begini', 'menurut', 'saya', 'dia', 'berkhianat', 'pada', 'ag']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['politisi', 'ngomong', 'ok', 'ok', 'agamawan', 'ngomong', 'berkhianat', 'ag']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['politis', 'ngomong', 'ok', 'ok', 'agamawan', 'ngomong', 'khianat', 'ag']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3415,34 +3830,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>17426</v>
+        <v>28195</v>
       </c>
       <c r="C84" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>imam ali siapa yg menyelidiki aibaurat orang maka allah akan membuka aurataibnya</t>
+          <t>kena covid</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['imam', 'ali', 'siapa', 'yg', 'menyelidiki', 'aibaurat', 'orang', 'maka', 'allah', 'akan', 'membuka', 'aurataibnya']</t>
+          <t>['kena', 'covid']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['kena', 'covid']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['imam', 'ali', 'menyelidiki', 'aibaurat', 'orang', 'allah', 'membuka', 'aurataibnya']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['imam', 'ali', 'selidik', 'aibaurat', 'orang', 'allah', 'buka', 'aurataibnya']</t>
+          <t>['kena', 'covid']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['kena', 'covid']</t>
         </is>
       </c>
     </row>
@@ -3451,34 +3871,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>17427</v>
+        <v>28196</v>
       </c>
       <c r="C85" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>pesan terakhir almarhumah syarifah yayah alatas yg baru saja meninggal kepada salah seorang temannya</t>
+          <t>mari kita doakan guru kita ust jalaluddin rahmat dan ibu jalal disembuhkan dari segala penyakit dan keluarga beliau</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['pesan', 'terakhir', 'almarhumah', 'syarifah', 'yayah', 'alatas', 'yg', 'baru', 'saja', 'meninggal', 'kepada', 'salah', 'seorang', 'temannya']</t>
+          <t>['mari', 'kita', 'doakan', 'guru', 'kita', 'ust', 'jalaluddin', 'rahmat', 'dan', 'ibu', 'jalal', 'disembuhkan', 'dari', 'segala', 'penyakit', 'dan', 'keluarga', 'beliau']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['mari', 'kita', 'doakan', 'guru', 'kita', 'ustaz', 'jalaluddin', 'rahmat', 'dan', 'ibu', 'jalal', 'disembuhkan', 'dari', 'segala', 'penyakit', 'dan', 'keluarga', 'beliau']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['pesan', 'almarhumah', 'syarifah', 'yayah', 'alatas', 'meninggal', 'salah', 'temannya']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['pesan', 'almarhumah', 'syarifah', 'yayah', 'alatas', 'tinggal', 'salah', 'teman']</t>
+          <t>['mari', 'doakan', 'guru', 'ustaz', 'jalaluddin', 'rahmat', 'jalal', 'disembuhkan', 'penyakit', 'keluarga', 'beliau']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['mari', 'doa', 'guru', 'ustaz', 'jalaluddin', 'rahmat', 'jalal', 'sembuh', 'sakit', 'keluarga', 'beliau']</t>
         </is>
       </c>
     </row>
@@ -3487,34 +3912,35 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>17428</v>
+        <v>28197</v>
       </c>
       <c r="C86" t="n">
-        <v>215</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>silahkan ikuti diskusi seputar lepas jilbab dlm tinjauan hukum agama amp hukum negara intinya hukum agama berpijak</t>
-        </is>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['silahkan', 'ikuti', 'diskusi', 'seputar', 'lepas', 'jilbab', 'dlm', 'tinjauan', 'hukum', 'agama', 'amp', 'hukum', 'negara', 'intinya', 'hukum', 'agama', 'berpijak']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['silahkan', 'ikuti', 'diskusi', 'seputar', 'lepas', 'jilbab', 'dlm', 'tinjauan', 'hukum', 'agama', 'hukum', 'negara', 'intinya', 'hukum', 'agama', 'berpijak']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['silah', 'ikut', 'diskusi', 'putar', 'lepas', 'jilbab', 'dlm', 'tinjau', 'hukum', 'agama', 'hukum', 'negara', 'inti', 'hukum', 'agama', 'pijak']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3523,34 +3949,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>17429</v>
+        <v>28198</v>
       </c>
       <c r="C87" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>rt abdillahtoha berita santer akan ada kocok ulang kabinet bila benar presiden hrs utamakan pilih menteri yg jujur jangan terlalu</t>
+          <t>setuju</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['rt', 'abdillahtoha', 'berita', 'santer', 'akan', 'ada', 'kocok', 'ulang', 'kabinet', 'bila', 'benar', 'presiden', 'hrs', 'utamakan', 'pilih', 'menteri', 'yg', 'jujur', 'jangan', 'terlalu']</t>
+          <t>['setuju']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['setuju']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['abdillahtoha', 'berita', 'santer', 'kocok', 'ulang', 'kabinet', 'presiden', 'hrs', 'utamakan', 'pilih', 'menteri', 'jujur']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['abdillahtoha', 'berita', 'santer', 'kocok', 'ulang', 'kabinet', 'presiden', 'hrs', 'utama', 'pilih', 'menteri', 'jujur']</t>
+          <t>['setuju']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['tuju']</t>
         </is>
       </c>
     </row>
@@ -3559,34 +3990,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>17430</v>
+        <v>28199</v>
       </c>
       <c r="C88" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>judul sdh ada ini tulisan abdul karim soroush</t>
+          <t>atberkah rasulullah menuntut ilmu adalah wajib bagi tiap muslim ketahuilah sesungguhnya allah mencintai par</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['judul', 'sdh', 'ada', 'ini', 'tulisan', 'abdul', 'karim', 'soroush']</t>
+          <t>['atberkah', 'rasulullah', 'menuntut', 'ilmu', 'adalah', 'wajib', 'bagi', 'tiap', 'muslim', 'ketahuilah', 'sesungguhnya', 'allah', 'mencintai', 'par']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['atberkah', 'rasulullah', 'menuntut', 'ilmu', 'adalah', 'wajib', 'bagi', 'tiap', 'muslim', 'ketahuilah', 'sesungguhnya', 'allah', 'mencintai', 'par']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['judul', 'tulisan', 'abdul', 'karim', 'soroush']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['judul', 'tulis', 'abdul', 'karim', 'soroush']</t>
+          <t>['atberkah', 'rasulullah', 'menuntut', 'ilmu', 'wajib', 'muslim', 'ketahuilah', 'sesungguhnya', 'allah', 'mencintai', 'par']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['atberkah', 'rasulullah', 'tuntut', 'ilmu', 'wajib', 'muslim', 'tahu', 'sungguh', 'allah', 'cinta', 'par']</t>
         </is>
       </c>
     </row>
@@ -3595,34 +4031,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>17431</v>
+        <v>28200</v>
       </c>
       <c r="C89" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>buku bulan ini</t>
+          <t xml:space="preserve">rt jika perempuan di lingkungan keluarga dimuliakan maka bagian penting dari masalahmasalah yang terjadi di masyarakat akan </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['buku', 'bulan', 'ini']</t>
+          <t>['rt', 'jika', 'perempuan', 'di', 'lingkungan', 'keluarga', 'dimuliakan', 'maka', 'bagian', 'penting', 'dari', 'masalahmasalah', 'yang', 'terjadi', 'di', 'masyarakat', 'akan']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'jika', 'perempuan', 'di', 'lingkungan', 'keluarga', 'dimuliakan', 'maka', 'bagian', 'penting', 'dari', 'masalahmasalah', 'yang', 'terjadi', 'di', 'masyarakat', 'akan']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['buku']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['buku']</t>
+          <t>['perempuan', 'lingkungan', 'keluarga', 'dimuliakan', 'masalahmasalah', 'masyarakat']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['perempuan', 'lingkung', 'keluarga', 'mulia', 'masalahmasalah', 'masyarakat']</t>
         </is>
       </c>
     </row>
@@ -3631,34 +4072,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>17432</v>
+        <v>28201</v>
       </c>
       <c r="C90" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>lamun siro pinter ojo minteri lamun siro banter ojo ndisiki lamun siro sekti ojo mateni suro diro jay</t>
+          <t>silahkan mengikuti diskusi kami seputar mengapa islam berbeda semoga bermanfaat podcast indonesia mengapa isla</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['lamun', 'siro', 'pinter', 'ojo', 'minteri', 'lamun', 'siro', 'banter', 'ojo', 'ndisiki', 'lamun', 'siro', 'sekti', 'ojo', 'mateni', 'suro', 'diro', 'jay']</t>
+          <t>['silahkan', 'mengikuti', 'diskusi', 'kami', 'seputar', 'mengapa', 'islam', 'berbeda', 'semoga', 'bermanfaat', 'podcast', 'indonesia', 'mengapa', 'isla']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 18 outcomes&gt;</t>
+          <t>['silakan', 'mengikuti', 'diskusi', 'kami', 'seputar', 'mengapa', 'islam', 'berbeda', 'semoga', 'bermanfaat', 'podcast', 'indonesia', 'mengapa', 'islam']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['lamun', 'siro', 'pinter', 'ojo', 'minteri', 'lamun', 'siro', 'banter', 'ojo', 'ndisiki', 'lamun', 'siro', 'sekti', 'ojo', 'mateni', 'suro', 'diro', 'jay']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['lamun', 'siro', 'pinter', 'ojo', 'minteri', 'lamun', 'siro', 'banter', 'ojo', 'ndisiki', 'lamun', 'siro', 'sekti', 'ojo', 'mateni', 'suro', 'diro', 'jay']</t>
+          <t>['silakan', 'mengikuti', 'diskusi', 'seputar', 'islam', 'berbeda', 'semoga', 'bermanfaat', 'podcast', 'indonesia', 'islam']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['sila', 'ikut', 'diskusi', 'putar', 'islam', 'beda', 'moga', 'manfaat', 'podcast', 'indonesia', 'islam']</t>
         </is>
       </c>
     </row>
@@ -3667,34 +4113,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>17433</v>
+        <v>28202</v>
       </c>
       <c r="C91" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">dr abdur rauf banten alumni yapi dosen ulumul quran  tafsir staimi sadra uin dan ptiq tadi malam meninggal </t>
+          <t>rt abdillahtoha saya tidak habis pikir apa maksud orang yg suka mengadu domba anies dgn risma atau pak jokowi dgn ibu susi dalam bah</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['dr', 'abdur', 'rauf', 'banten', 'alumni', 'yapi', 'dosen', 'ulumul', 'quran', 'tafsir', 'staimi', 'sadra', 'uin', 'dan', 'ptiq', 'tadi', 'malam', 'meninggal']</t>
+          <t>['rt', 'abdillahtoha', 'saya', 'tidak', 'habis', 'pikir', 'apa', 'maksud', 'orang', 'yg', 'suka', 'mengadu', 'domba', 'anies', 'dgn', 'risma', 'atau', 'pak', 'jokowi', 'dgn', 'ibu', 'susi', 'dalam', 'bah']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'abdillahtoha', 'saya', 'tidak', 'habis', 'pikir', 'apa', 'maksud', 'orang', 'yang', 'suka', 'mengadu', 'domba', 'anies', 'dengan', 'risma', 'atau', 'pak', 'jokowi', 'dengan', 'ibu', 'susi', 'dalam', 'bah']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['dr', 'abdur', 'rauf', 'banten', 'alumni', 'yapi', 'dosen', 'ulumul', 'quran', 'tafsir', 'staimi', 'sadra', 'uin', 'ptiq', 'malam', 'meninggal']</t>
+          <t>&lt;FreqDist with 23 samples and 24 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['dr', 'abdur', 'rauf', 'banten', 'alumni', 'yapi', 'dosen', 'ulumul', 'quran', 'tafsir', 'staimi', 'sadra', 'uin', 'ptiq', 'malam', 'tinggal']</t>
+          <t>['abdillahtoha', 'habis', 'pikir', 'maksud', 'orang', 'suka', 'mengadu', 'domba', 'anies', 'risma', 'jokowi', 'susi', 'bah']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['abdillahtoha', 'habis', 'pikir', 'maksud', 'orang', 'suka', 'adu', 'domba', 'anies', 'risma', 'jokowi', 'sus', 'bah']</t>
         </is>
       </c>
     </row>
@@ -3703,34 +4154,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17434</v>
+        <v>28203</v>
       </c>
       <c r="C92" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ga ngajar itu skrng</t>
+          <t>rt negara dengan penduduk mayoritas muslim terbesar di dunia angka perceraiannya tinggi banget apakah islam gak mengajarka</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['ga', 'ngajar', 'itu', 'skrng']</t>
+          <t>['rt', 'negara', 'dengan', 'penduduk', 'mayoritas', 'muslim', 'terbesar', 'di', 'dunia', 'angka', 'perceraiannya', 'tinggi', 'banget', 'apakah', 'islam', 'gak', 'mengajarka']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'negara', 'dengan', 'penduduk', 'mayoritas', 'muslim', 'terbesar', 'di', 'dunia', 'angka', 'perceraiannya', 'tinggi', 'banget', 'apakah', 'islam', 'tidak', 'mengajarka']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['ngajar', 'skrng']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['ngajar', 'skrng']</t>
+          <t>['negara', 'penduduk', 'mayoritas', 'muslim', 'terbesar', 'dunia', 'angka', 'perceraiannya', 'banget', 'islam', 'mengajarka']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['negara', 'duduk', 'mayoritas', 'muslim', 'besar', 'dunia', 'angka', 'cerai', 'banget', 'islam', 'mengajarka']</t>
         </is>
       </c>
     </row>
@@ -3739,34 +4195,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>17435</v>
+        <v>28204</v>
       </c>
       <c r="C93" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>mohon doa semua kawan atas kesehatan kakak saya yang kini sedang menjalani operasi di harapan kita</t>
+          <t>atberkah rasulullah tiada perbuatan halal yang allah benci melebihi talakperceraian</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['mohon', 'doa', 'semua', 'kawan', 'atas', 'kesehatan', 'kakak', 'saya', 'yang', 'kini', 'sedang', 'menjalani', 'operasi', 'di', 'harapan', 'kita']</t>
+          <t>['atberkah', 'rasulullah', 'tiada', 'perbuatan', 'halal', 'yang', 'allah', 'benci', 'melebihi', 'talakperceraian']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['atberkah', 'rasulullah', 'tiada', 'perbuatan', 'halal', 'yang', 'allah', 'benci', 'melebihi', 'talakperceraian']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['mohon', 'doa', 'kawan', 'kesehatan', 'kakak', 'menjalani', 'operasi', 'harapan']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['mohon', 'doa', 'kawan', 'sehat', 'kakak', 'jalan', 'operasi', 'harap']</t>
+          <t>['atberkah', 'rasulullah', 'tiada', 'perbuatan', 'halal', 'allah', 'benci', 'melebihi', 'talakperceraian']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['atberkah', 'rasulullah', 'tiada', 'buat', 'halal', 'allah', 'benci', 'lebih', 'talakperceraian']</t>
         </is>
       </c>
     </row>
@@ -3775,34 +4236,35 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>17436</v>
+        <v>28205</v>
       </c>
       <c r="C94" t="n">
-        <v>215</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>podcast indonesia sahabat saya meninggal saya sedih berlebihan giman semoga bermanfaat</t>
-        </is>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['podcast', 'indonesia', 'sahabat', 'saya', 'meninggal', 'saya', 'sedih', 'berlebihan', 'giman', 'semoga', 'bermanfaat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['podcast', 'indonesia', 'sahabat', 'meninggal', 'sedih', 'giman', 'semoga', 'bermanfaat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['podcast', 'indonesia', 'sahabat', 'tinggal', 'sedih', 'gim', 'moga', 'manfaat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3811,30 +4273,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>17437</v>
+        <v>28206</v>
       </c>
       <c r="C95" t="n">
-        <v>215</v>
-      </c>
-      <c r="D95" t="inlineStr"/>
+        <v>331</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>imam ali paling mulianya kemuliaan adalah ilmu karena dngnya kehidupan yg akan datang dan yang skrng bisa diketah</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['imam', 'ali', 'paling', 'mulianya', 'kemuliaan', 'adalah', 'ilmu', 'karena', 'dngnya', 'kehidupan', 'yg', 'akan', 'datang', 'dan', 'yang', 'skrng', 'bisa', 'diketah']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['imam', 'ali', 'paling', 'mulianya', 'kemuliaan', 'adalah', 'ilmu', 'karena', 'dngnya', 'kehidupan', 'yang', 'akan', 'datang', 'dan', 'yang', 'sekarang', 'bisa', 'diketah']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['imam', 'ali', 'mulianya', 'kemuliaan', 'ilmu', 'dngnya', 'kehidupan', 'diketah']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['imam', 'ali', 'mulia', 'mulia', 'ilmu', 'dngnya', 'hidup', 'diketah']</t>
         </is>
       </c>
     </row>
@@ -3843,34 +4314,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17438</v>
+        <v>28207</v>
       </c>
       <c r="C96" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rasulullah sebaikbaiknya jihad adalah orang yang berpagi hari tanpa berencana untuk menzalimimenganiaya siapapu</t>
+          <t>silahkan mengikuti diskusi terkait pertanyaan benarkah hanya orang kaya yang bisa berbuat baik semoga bermanfaa</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rasulullah', 'sebaikbaiknya', 'jihad', 'adalah', 'orang', 'yang', 'berpagi', 'hari', 'tanpa', 'berencana', 'untuk', 'menzalimimenganiaya', 'siapapu']</t>
+          <t>['silahkan', 'mengikuti', 'diskusi', 'terkait', 'pertanyaan', 'benarkah', 'hanya', 'orang', 'kaya', 'yang', 'bisa', 'berbuat', 'baik', 'semoga', 'bermanfaa']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['silakan', 'mengikuti', 'diskusi', 'terkait', 'pertanyaan', 'benarkah', 'hanya', 'orang', 'kayak', 'yang', 'bisa', 'berbuat', 'baik', 'semoga', 'bermanfaa']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['rasulullah', 'sebaikbaiknya', 'jihad', 'orang', 'berpagi', 'berencana', 'menzalimimenganiaya', 'siapapu']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['rasulullah', 'sebaikbaiknya', 'jihad', 'orang', 'pagi', 'rencana', 'menzalimimenganiaya', 'siapapu']</t>
+          <t>['silakan', 'mengikuti', 'diskusi', 'terkait', 'orang', 'kayak', 'berbuat', 'semoga', 'bermanfaa']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['sila', 'ikut', 'diskusi', 'kait', 'orang', 'kayak', 'buat', 'moga', 'bermanfaa']</t>
         </is>
       </c>
     </row>
@@ -3879,34 +4355,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17439</v>
+        <v>28208</v>
       </c>
       <c r="C97" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>imam hasan al askari tidaklah sopan tidak beradab menampakkan kegembiraan di hadapan orang yg seda</t>
+          <t>jangan lupa kalo berminat beli lewat link yg tertera di dalam website biar ada komisi</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['imam', 'hasan', 'al', 'askari', 'tidaklah', 'sopan', 'tidak', 'beradab', 'menampakkan', 'kegembiraan', 'di', 'hadapan', 'orang', 'yg', 'seda']</t>
+          <t>['jangan', 'lupa', 'kalo', 'berminat', 'beli', 'lewat', 'link', 'yg', 'tertera', 'di', 'dalam', 'website', 'biar', 'ada', 'komisi']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['jangan', 'lupa', 'kalau', 'berminat', 'beli', 'lewat', 'link', 'yang', 'tertera', 'di', 'dalam', 'website', 'biar', 'ada', 'komisi']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['imam', 'hasan', 'al', 'askari', 'sopan', 'beradab', 'menampakkan', 'kegembiraan', 'hadapan', 'orang', 'seda']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['imam', 'hasan', 'al', 'askar', 'sopan', 'adab', 'tampak', 'gembira', 'hadap', 'orang', 'seda']</t>
+          <t>['lupa', 'berminat', 'beli', 'link', 'tertera', 'website', 'komisi']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['lupa', 'minat', 'beli', 'link', 'tera', 'website', 'komisi']</t>
         </is>
       </c>
     </row>
@@ -3915,34 +4396,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>17440</v>
+        <v>28209</v>
       </c>
       <c r="C98" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>guru kami yang mulia syaikh jafar hadi telah meninggal dunia semoga allah mengampuni dosanya dan menerima segena</t>
+          <t>bisa juga diartikan sepanjang hidupnya</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['guru', 'kami', 'yang', 'mulia', 'syaikh', 'jafar', 'hadi', 'telah', 'meninggal', 'dunia', 'semoga', 'allah', 'mengampuni', 'dosanya', 'dan', 'menerima', 'segena']</t>
+          <t>['bisa', 'juga', 'diartikan', 'sepanjang', 'hidupnya']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['bisa', 'juga', 'diartikan', 'sepanjang', 'hidupnya']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['guru', 'mulia', 'syaikh', 'jafar', 'hadi', 'meninggal', 'dunia', 'semoga', 'allah', 'mengampuni', 'dosanya', 'menerima', 'segena']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['guru', 'mulia', 'syaikh', 'jafar', 'had', 'tinggal', 'dunia', 'moga', 'allah', 'ampun', 'dosa', 'terima', 'gena']</t>
+          <t>['diartikan', 'hidupnya']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['arti', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -3951,34 +4437,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17441</v>
+        <v>28210</v>
       </c>
       <c r="C99" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>terima kasih beb</t>
+          <t>rasulullah orang yg menunaikan hajat saudaranya ganjarannya seperti orang yg menyembah allah sepan</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'beb']</t>
+          <t>['rasulullah', 'orang', 'yg', 'menunaikan', 'hajat', 'saudaranya', 'ganjarannya', 'seperti', 'orang', 'yg', 'menyembah', 'allah', 'sepan']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rasulullah', 'orang', 'yang', 'menunaikan', 'hajat', 'saudaranya', 'ganjarannya', 'seperti', 'orang', 'yang', 'menyembah', 'allah', 'sepan']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'beb']</t>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'beb']</t>
+          <t>['rasulullah', 'orang', 'menunaikan', 'hajat', 'saudaranya', 'ganjarannya', 'orang', 'menyembah', 'allah', 'sepan']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['rasulullah', 'orang', 'tunai', 'hajat', 'saudara', 'ganjar', 'orang', 'sembah', 'allah', 'sepan']</t>
         </is>
       </c>
     </row>
@@ -3987,34 +4478,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>17442</v>
+        <v>28211</v>
       </c>
       <c r="C100" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>saya banyak belajar dari anda makasih</t>
+          <t>rt yang belom nikah bisa mempersiapkan diri yang sudah nikah bisa memperbarui pandangannya ttg pernikahan terimakasih penc</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['saya', 'banyak', 'belajar', 'dari', 'anda', 'makasih']</t>
+          <t>['rt', 'yang', 'belom', 'nikah', 'bisa', 'mempersiapkan', 'diri', 'yang', 'sudah', 'nikah', 'bisa', 'memperbarui', 'pandangannya', 'ttg', 'pernikahan', 'terimakasih', 'penc']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'yang', 'belum', 'nikah', 'bisa', 'mempersiapkan', 'diri', 'yang', 'sudah', 'nikah', 'bisa', 'memperbarui', 'pandangannya', 'tentang', 'pernikahan', 'terima, kasih', 'penc']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['belajar', 'makasih']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['ajar', 'makasih']</t>
+          <t>['nikah', 'nikah', 'memperbarui', 'pandangannya', 'pernikahan', 'terima, kasih', 'penc']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['nikah', 'nikah', 'baru', 'pandang', 'nikah', 'terima kasih', 'penc']</t>
         </is>
       </c>
     </row>
@@ -4023,34 +4519,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>17443</v>
+        <v>28212</v>
       </c>
       <c r="C101" t="n">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>terima kasih bung laksono sdh like</t>
+          <t>silahkan mengikuti diskusj podcast indonesia ngapain buru buru nikah semoga bermanfaat</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'bung', 'laksono', 'sdh', 'like']</t>
+          <t>['silahkan', 'mengikuti', 'diskusj', 'podcast', 'indonesia', 'ngapain', 'buru', 'buru', 'nikah', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['silakan', 'mengikuti', 'diskusj', 'podcast', 'indonesia', 'apa', 'buru', 'buru', 'nikah', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'laksono', 'like']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'laksono', 'like']</t>
+          <t>['silakan', 'mengikuti', 'diskusj', 'podcast', 'indonesia', 'buru', 'buru', 'nikah', 'semoga', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['sila', 'ikut', 'diskusj', 'podcast', 'indonesia', 'buru', 'buru', 'nikah', 'moga', 'manfaat']</t>
         </is>
       </c>
     </row>
